--- a/objectsPositionCV10.xlsx
+++ b/objectsPositionCV10.xlsx
@@ -38,6 +38,14 @@
     <sheet name="U11CV10_check_total" r:id="rId27" sheetId="23"/>
     <sheet name="objectsPositionU12CV10" r:id="rId28" sheetId="24"/>
     <sheet name="U12CV10_check_total" r:id="rId29" sheetId="25"/>
+    <sheet name="objectsPositionU13CV10" r:id="rId30" sheetId="26"/>
+    <sheet name="U13CV10_check_total" r:id="rId31" sheetId="27"/>
+    <sheet name="objectsPositionU14CV10" r:id="rId32" sheetId="28"/>
+    <sheet name="U14CV10_check_total" r:id="rId33" sheetId="29"/>
+    <sheet name="objectsPositionU15CV10" r:id="rId34" sheetId="30"/>
+    <sheet name="U15CV10_check_total" r:id="rId35" sheetId="31"/>
+    <sheet name="objectsPositionU16CV10" r:id="rId36" sheetId="32"/>
+    <sheet name="U16CV10_check_total" r:id="rId37" sheetId="33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3583" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4747" uniqueCount="865">
   <si>
     <t>timestamp</t>
   </si>
@@ -2071,6 +2079,585 @@
   </si>
   <si>
     <t>U12CV</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_40_147</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_40_180</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_40_202</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_40_225</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_46_382</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_46_404</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_51_325</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_51_380</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_51_424</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_51_469</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_55_023</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_55_223</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_57_688</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_57_689</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_57_57_722</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_58_00_565</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_58_00_709</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_58_03_441</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_58_03_519</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_58_06_984</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_58_07_006</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_58_13_725</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_58_13_747</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_58_22_299</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_58_22_499</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_58_26_364</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_58_26_386</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_58_37_381</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_59_32_045</t>
+  </si>
+  <si>
+    <t>2021_11_08_10_59_32_224</t>
+  </si>
+  <si>
+    <t>U13CV</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_05_638</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_05_683</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_05_705</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_05_727</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_11_286</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_11_341</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_11_363</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_11_408</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_11_419</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_11_463</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_11_485</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_11_507</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_11_519</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_11_541</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_19_748</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_19_749</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_19_781</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_19_826</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_19_859</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_29_666</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_29_799</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_33_942</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_33_964</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_34_042</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_34_064</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_41_427</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_41_527</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_46_258</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_46_280</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_53_966</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_54_166</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_58_941</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_49_59_186</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_50_03_006</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_50_03_139</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_50_06_627</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_50_06_838</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_50_16_445</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_50_16_700</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_50_25_207</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_50_25_307</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_50_33_126</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_50_52_706</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_50_52_784</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_51_30_078</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_51_30_100</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_51_34_243</t>
+  </si>
+  <si>
+    <t>2021_11_08_11_51_34_421</t>
+  </si>
+  <si>
+    <t>U14CV</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_39_735</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_39_780</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_39_791</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_39_813</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_47_892</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_47_914</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_47_937</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_47_970</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_47_992</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_48_036</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_48_059</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_48_092</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_48_114</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_48_136</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_48_159</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_53_057</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_53_134</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_53_190</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_53_357</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_56_977</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_19_57_255</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_00_631</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_00_698</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_00_720</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_00_731</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_00_853</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_01_153</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_03_818</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_03_819</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_03_974</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_07_173</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_07_195</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_11_071</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_11_193</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_14_181</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_14_314</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_17_113</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_17_235</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_18_157</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_28_174</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_28_196</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_28_218</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_28_241</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_28_296</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_28_318</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_48_776</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_20_49_398</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_21_02_137</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_21_37_975</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_21_37_998</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_21_47_716</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_21_47_793</t>
+  </si>
+  <si>
+    <t>2021_11_08_15_21_47_838</t>
+  </si>
+  <si>
+    <t>U15CV</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_31_44_766</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_31_44_800</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_31_44_822</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_31_44_844</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_31_56_677</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_31_56_865</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_32_09_060</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_32_09_227</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_32_10_304</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_32_10_526</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_32_11_859</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_32_12_059</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_32_16_279</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_32_16_379</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_32_29_762</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_32_29_906</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_32_47_043</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_32_47_342</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_32_58_038</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_17_085</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_17_262</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_19_739</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_19_916</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_23_337</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_23_604</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_26_202</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_26_258</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_26_302</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_26_347</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_26_358</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_27_147</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_27_224</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_27_246</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_27_280</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_32_922</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_32_999</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_38_686</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_38_697</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_40_507</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_45_805</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_52_724</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_33_56_644</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_34_02_042</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_34_15_480</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_34_15_503</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_34_15_525</t>
+  </si>
+  <si>
+    <t>2021_11_08_16_34_15_547</t>
+  </si>
+  <si>
+    <t>U16CV</t>
+  </si>
+  <si>
+    <t>581</t>
   </si>
 </sst>
 </file>
@@ -12624,6 +13211,1926 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>675</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>675</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>676</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>677</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>678</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>679</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>680</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>681</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>682</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>682</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>683</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>684</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>685</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>686</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>687</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>687</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>688</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>689</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>689</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>690</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>691</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>691</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>692</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>693</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>693</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>694</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>695</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>695</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>696</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>697</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>697</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>698</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>699</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>700</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>701</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>701</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>702</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>694</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>677</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>702</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>708</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>709</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>711</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>712</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>713</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>714</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>715</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>716</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>717</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>718</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>719</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>720</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>721</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>722</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>723</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>724</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>725</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>725</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>726</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>727</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>727</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>728</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>729</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>730</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>731</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>731</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>732</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>733</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>733</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>734</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>735</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>735</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>736</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>737</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>737</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>738</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>739</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>739</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>740</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>741</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>741</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>742</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>743</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>744</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>744</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>745</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>746</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>746</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>747</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>748</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>749</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>749</v>
+      </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>750</v>
+      </c>
+      <c r="C62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>751</v>
+      </c>
+      <c r="C63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>751</v>
+      </c>
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>752</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>752</v>
+      </c>
+      <c r="C66" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>705</v>
+      </c>
+      <c r="B67" t="s">
+        <v>753</v>
+      </c>
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" t="s">
+        <v>754</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5" t="s">
+        <v>744</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>730</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>734</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>757</v>
+      </c>
+      <c r="B11" t="s">
+        <v>747</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
@@ -12787,6 +15294,2276 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>762</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>763</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>763</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>764</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>764</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>766</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>767</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>768</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>769</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>770</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>771</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>772</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>773</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>774</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>775</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>776</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>776</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>777</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>778</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>779</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>780</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>780</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>781</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>782</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>782</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>783</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>784</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>785</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>786</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>787</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>788</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>789</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>790</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>791</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>791</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>792</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>793</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>793</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>794</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>795</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>795</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>796</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>797</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>797</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>798</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>799</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>800</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>801</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>802</v>
+      </c>
+      <c r="C56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>803</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>803</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>804</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>805</v>
+      </c>
+      <c r="C60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>806</v>
+      </c>
+      <c r="C61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>807</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>807</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>808</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>809</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>809</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>705</v>
+      </c>
+      <c r="B67" t="s">
+        <v>810</v>
+      </c>
+      <c r="C67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>758</v>
+      </c>
+      <c r="B68" t="s">
+        <v>811</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>759</v>
+      </c>
+      <c r="B69" t="s">
+        <v>812</v>
+      </c>
+      <c r="C69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>760</v>
+      </c>
+      <c r="B70" t="s">
+        <v>813</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" t="s">
+        <v>814</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>808</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>815</v>
+      </c>
+      <c r="B5" t="s">
+        <v>813</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>705</v>
+      </c>
+      <c r="B6" t="s">
+        <v>810</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>794</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>787</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B11" t="s">
+        <v>810</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>814</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>817</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>817</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>818</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>818</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>819</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>819</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>820</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>820</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>821</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>822</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>822</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>823</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>824</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>824</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>825</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>826</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>826</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>827</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>828</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>828</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>829</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>830</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>830</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>831</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>832</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>832</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>833</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>834</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>835</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>835</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>836</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>837</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>837</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>838</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>839</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>839</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>840</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>841</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>842</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>843</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>844</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>845</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>846</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>846</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>847</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>848</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>849</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>850</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>851</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>851</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>852</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>853</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>853</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>854</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>855</v>
+      </c>
+      <c r="C59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>856</v>
+      </c>
+      <c r="C60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>857</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>858</v>
+      </c>
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>859</v>
+      </c>
+      <c r="C63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>860</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>860</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>861</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>705</v>
+      </c>
+      <c r="B67" t="s">
+        <v>862</v>
+      </c>
+      <c r="C67" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" t="s">
+        <v>863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>855</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>857</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>705</v>
+      </c>
+      <c r="B6" t="s">
+        <v>862</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>853</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>864</v>
+      </c>
+      <c r="B8" t="s">
+        <v>855</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>858</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>856</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B11" t="s">
+        <v>862</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 

--- a/objectsPositionCV10.xlsx
+++ b/objectsPositionCV10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B276A8F8-CE77-4CFC-9CD9-3E361DB7590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD467B72-B511-4DDD-A825-A62E48991081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,8 +50,14 @@
     <sheet name="U17CV10_check_total" sheetId="35" state="hidden" r:id="rId35"/>
     <sheet name="objectsPositionU18CV10" sheetId="36" state="hidden" r:id="rId36"/>
     <sheet name="U18CV10_check_total" sheetId="37" state="hidden" r:id="rId37"/>
-    <sheet name="objectsPositionU19CV10" sheetId="38" r:id="rId38"/>
-    <sheet name="U19CV10_check_total" sheetId="39" r:id="rId39"/>
+    <sheet name="objectsPositionU19CV10" sheetId="38" state="hidden" r:id="rId38"/>
+    <sheet name="U19CV10_check_total" sheetId="39" state="hidden" r:id="rId39"/>
+    <sheet name="objectsPositionU20CV10" sheetId="40" state="hidden" r:id="rId40"/>
+    <sheet name="U20CV10_check_total" sheetId="41" state="hidden" r:id="rId41"/>
+    <sheet name="objectsPositionU21CV10" sheetId="42" state="hidden" r:id="rId42"/>
+    <sheet name="U21CV10_check_total" sheetId="43" state="hidden" r:id="rId43"/>
+    <sheet name="objectsPositionU22CV10" sheetId="44" r:id="rId44"/>
+    <sheet name="U22CV10_check_total" sheetId="45" r:id="rId45"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6417" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7644" uniqueCount="1329">
   <si>
     <t>timestamp</t>
   </si>
@@ -3384,6 +3390,678 @@
   </si>
   <si>
     <t>11:44:50</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_21_11_556</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_21_14_433</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_21_18_076</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_21_21_619</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_21_46_519</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_21_50_739</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_21_53_515</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_22_32_298</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_22_37_773</t>
+  </si>
+  <si>
+    <t>U20CV</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_05_56_352</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_06_01_427</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_06_33_624</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_07_05_642</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_07_12_872</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_07_18_025</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_07_20_868</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_07_31_585</t>
+  </si>
+  <si>
+    <t>U21CV</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_27_55_136</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_28_03_077</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_28_05_976</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_28_22_135</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_28_26_055</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_28_29_932</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_28_35_107</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_28_48_768</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_29_20_209</t>
+  </si>
+  <si>
+    <t>U22CV</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>14:21:00:678</t>
+  </si>
+  <si>
+    <t>14:21:00:712</t>
+  </si>
+  <si>
+    <t>14:21:00:734</t>
+  </si>
+  <si>
+    <t>14:21:00:735</t>
+  </si>
+  <si>
+    <t>14:21:00:756</t>
+  </si>
+  <si>
+    <t>14:21:03:894</t>
+  </si>
+  <si>
+    <t>14:21:03:916</t>
+  </si>
+  <si>
+    <t>14:21:06:115</t>
+  </si>
+  <si>
+    <t>14:21:06:116</t>
+  </si>
+  <si>
+    <t>14:21:06:159</t>
+  </si>
+  <si>
+    <t>14:21:08:436</t>
+  </si>
+  <si>
+    <t>14:21:08:469</t>
+  </si>
+  <si>
+    <t>14:21:11:412</t>
+  </si>
+  <si>
+    <t>14:21:11:556</t>
+  </si>
+  <si>
+    <t>14:21:14:400</t>
+  </si>
+  <si>
+    <t>14:21:14:433</t>
+  </si>
+  <si>
+    <t>14:21:17:998</t>
+  </si>
+  <si>
+    <t>14:21:18:076</t>
+  </si>
+  <si>
+    <t>14:21:21:574</t>
+  </si>
+  <si>
+    <t>14:21:21:619</t>
+  </si>
+  <si>
+    <t>14:21:25:450</t>
+  </si>
+  <si>
+    <t>14:21:25:672</t>
+  </si>
+  <si>
+    <t>14:21:29:238</t>
+  </si>
+  <si>
+    <t>14:21:29:259</t>
+  </si>
+  <si>
+    <t>14:21:46:274</t>
+  </si>
+  <si>
+    <t>14:21:46:518</t>
+  </si>
+  <si>
+    <t>14:21:46:519</t>
+  </si>
+  <si>
+    <t>14:21:50:639</t>
+  </si>
+  <si>
+    <t>14:21:50:739</t>
+  </si>
+  <si>
+    <t>14:21:53:493</t>
+  </si>
+  <si>
+    <t>14:21:53:515</t>
+  </si>
+  <si>
+    <t>14:22:32:175</t>
+  </si>
+  <si>
+    <t>14:22:32:298</t>
+  </si>
+  <si>
+    <t>14:22:33:053</t>
+  </si>
+  <si>
+    <t>14:22:33:097</t>
+  </si>
+  <si>
+    <t>14:22:37:773</t>
+  </si>
+  <si>
+    <t>14:21:00</t>
+  </si>
+  <si>
+    <t>14:22:37</t>
+  </si>
+  <si>
+    <t>15:05:14:166</t>
+  </si>
+  <si>
+    <t>15:05:14:210</t>
+  </si>
+  <si>
+    <t>15:05:14:233</t>
+  </si>
+  <si>
+    <t>15:05:14:244</t>
+  </si>
+  <si>
+    <t>15:05:25:444</t>
+  </si>
+  <si>
+    <t>15:05:25:466</t>
+  </si>
+  <si>
+    <t>15:05:35:728</t>
+  </si>
+  <si>
+    <t>15:05:35:806</t>
+  </si>
+  <si>
+    <t>15:05:35:872</t>
+  </si>
+  <si>
+    <t>15:05:35:883</t>
+  </si>
+  <si>
+    <t>15:05:40:626</t>
+  </si>
+  <si>
+    <t>15:05:40:925</t>
+  </si>
+  <si>
+    <t>15:05:46:112</t>
+  </si>
+  <si>
+    <t>15:05:46:345</t>
+  </si>
+  <si>
+    <t>15:05:56:185</t>
+  </si>
+  <si>
+    <t>15:05:56:208</t>
+  </si>
+  <si>
+    <t>15:05:56:307</t>
+  </si>
+  <si>
+    <t>15:05:56:352</t>
+  </si>
+  <si>
+    <t>15:06:01:405</t>
+  </si>
+  <si>
+    <t>15:06:01:427</t>
+  </si>
+  <si>
+    <t>15:06:10:967</t>
+  </si>
+  <si>
+    <t>15:06:11:267</t>
+  </si>
+  <si>
+    <t>15:06:14:388</t>
+  </si>
+  <si>
+    <t>15:06:14:688</t>
+  </si>
+  <si>
+    <t>15:06:16:964</t>
+  </si>
+  <si>
+    <t>15:06:16:965</t>
+  </si>
+  <si>
+    <t>15:06:17:209</t>
+  </si>
+  <si>
+    <t>15:06:20:552</t>
+  </si>
+  <si>
+    <t>15:06:20:563</t>
+  </si>
+  <si>
+    <t>15:06:20:607</t>
+  </si>
+  <si>
+    <t>15:06:20:652</t>
+  </si>
+  <si>
+    <t>15:06:20:752</t>
+  </si>
+  <si>
+    <t>15:06:20:785</t>
+  </si>
+  <si>
+    <t>15:06:33:568</t>
+  </si>
+  <si>
+    <t>15:06:33:612</t>
+  </si>
+  <si>
+    <t>15:06:33:624</t>
+  </si>
+  <si>
+    <t>15:06:52:226</t>
+  </si>
+  <si>
+    <t>15:06:52:270</t>
+  </si>
+  <si>
+    <t>15:07:00:711</t>
+  </si>
+  <si>
+    <t>15:07:01:011</t>
+  </si>
+  <si>
+    <t>15:07:05:265</t>
+  </si>
+  <si>
+    <t>15:07:05:364</t>
+  </si>
+  <si>
+    <t>15:07:05:386</t>
+  </si>
+  <si>
+    <t>15:07:05:509</t>
+  </si>
+  <si>
+    <t>15:07:05:531</t>
+  </si>
+  <si>
+    <t>15:07:05:631</t>
+  </si>
+  <si>
+    <t>15:07:05:642</t>
+  </si>
+  <si>
+    <t>15:07:10:662</t>
+  </si>
+  <si>
+    <t>15:07:11:150</t>
+  </si>
+  <si>
+    <t>15:07:11:173</t>
+  </si>
+  <si>
+    <t>15:07:11:206</t>
+  </si>
+  <si>
+    <t>15:07:11:783</t>
+  </si>
+  <si>
+    <t>15:07:11:806</t>
+  </si>
+  <si>
+    <t>15:07:11:828</t>
+  </si>
+  <si>
+    <t>15:07:12:005</t>
+  </si>
+  <si>
+    <t>15:07:12:006</t>
+  </si>
+  <si>
+    <t>15:07:12:605</t>
+  </si>
+  <si>
+    <t>15:07:12:872</t>
+  </si>
+  <si>
+    <t>15:07:17:747</t>
+  </si>
+  <si>
+    <t>15:07:18:025</t>
+  </si>
+  <si>
+    <t>15:07:20:590</t>
+  </si>
+  <si>
+    <t>15:07:20:624</t>
+  </si>
+  <si>
+    <t>15:07:20:646</t>
+  </si>
+  <si>
+    <t>15:07:20:813</t>
+  </si>
+  <si>
+    <t>15:07:20:846</t>
+  </si>
+  <si>
+    <t>15:07:20:868</t>
+  </si>
+  <si>
+    <t>15:07:23:345</t>
+  </si>
+  <si>
+    <t>15:07:23:645</t>
+  </si>
+  <si>
+    <t>15:07:23:689</t>
+  </si>
+  <si>
+    <t>15:07:23:711</t>
+  </si>
+  <si>
+    <t>15:07:23:712</t>
+  </si>
+  <si>
+    <t>15:07:24:267</t>
+  </si>
+  <si>
+    <t>15:07:31:263</t>
+  </si>
+  <si>
+    <t>15:07:31:508</t>
+  </si>
+  <si>
+    <t>15:07:31:552</t>
+  </si>
+  <si>
+    <t>15:07:31:585</t>
+  </si>
+  <si>
+    <t>15:05:14</t>
+  </si>
+  <si>
+    <t>15:07:31</t>
+  </si>
+  <si>
+    <t>16:27:27:067</t>
+  </si>
+  <si>
+    <t>16:27:27:111</t>
+  </si>
+  <si>
+    <t>16:27:27:133</t>
+  </si>
+  <si>
+    <t>16:27:27:155</t>
+  </si>
+  <si>
+    <t>16:27:44:908</t>
+  </si>
+  <si>
+    <t>16:27:44:930</t>
+  </si>
+  <si>
+    <t>16:27:47:096</t>
+  </si>
+  <si>
+    <t>16:27:47:129</t>
+  </si>
+  <si>
+    <t>16:27:49:017</t>
+  </si>
+  <si>
+    <t>16:27:49:073</t>
+  </si>
+  <si>
+    <t>16:27:50:816</t>
+  </si>
+  <si>
+    <t>16:27:50:894</t>
+  </si>
+  <si>
+    <t>16:27:55:036</t>
+  </si>
+  <si>
+    <t>16:27:55:136</t>
+  </si>
+  <si>
+    <t>16:28:02:955</t>
+  </si>
+  <si>
+    <t>16:28:03:077</t>
+  </si>
+  <si>
+    <t>16:28:05:876</t>
+  </si>
+  <si>
+    <t>16:28:05:932</t>
+  </si>
+  <si>
+    <t>16:28:05:954</t>
+  </si>
+  <si>
+    <t>16:28:05:976</t>
+  </si>
+  <si>
+    <t>16:28:08:852</t>
+  </si>
+  <si>
+    <t>16:28:08:997</t>
+  </si>
+  <si>
+    <t>16:28:11:629</t>
+  </si>
+  <si>
+    <t>16:28:14:250</t>
+  </si>
+  <si>
+    <t>16:28:14:294</t>
+  </si>
+  <si>
+    <t>16:28:22:135</t>
+  </si>
+  <si>
+    <t>16:28:26:055</t>
+  </si>
+  <si>
+    <t>16:28:29:932</t>
+  </si>
+  <si>
+    <t>16:28:32:930</t>
+  </si>
+  <si>
+    <t>16:28:33:130</t>
+  </si>
+  <si>
+    <t>16:28:33:574</t>
+  </si>
+  <si>
+    <t>16:28:35:074</t>
+  </si>
+  <si>
+    <t>16:28:35:107</t>
+  </si>
+  <si>
+    <t>16:28:48:712</t>
+  </si>
+  <si>
+    <t>16:28:48:756</t>
+  </si>
+  <si>
+    <t>16:28:48:768</t>
+  </si>
+  <si>
+    <t>16:29:20:209</t>
+  </si>
+  <si>
+    <t>16:27:27</t>
+  </si>
+  <si>
+    <t>16:29:20</t>
   </si>
 </sst>
 </file>
@@ -3749,7 +4427,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:N20"/>
+      <selection activeCell="N23" sqref="E21:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4748,72 +5426,150 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1211</v>
+      </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
+        <v>1.1226851851852127E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
       <c r="O21" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1289</v>
+      </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
+        <v>1.585648148148211E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
       <c r="O22" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1328</v>
+      </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
+        <v>1.3078703703703898E-3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
       <c r="O23" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
@@ -20695,8 +21451,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -21515,8 +22271,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -21703,8 +22459,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -22863,8 +23619,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -23063,8 +23819,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -24087,8 +24843,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -25141,6 +25897,4287 @@
       </c>
       <c r="E50" t="s">
         <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D52" sqref="D2:D53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="18.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>14:21:00</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C53,LEN(C2)-4)</f>
+        <v>14:22:37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>974</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>974</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>974</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>974</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>974</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>974</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>974</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>974</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>974</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>974</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>974</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>974</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>974</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>974</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>974</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>974</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>974</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>974</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>974</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>974</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>974</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>974</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>974</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>974</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>974</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>974</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>974</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>974</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>974</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>974</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>974</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>974</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>974</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>974</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>974</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>974</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>974</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>974</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>974</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>974</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>974</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>974</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>974</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>974</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>974</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>974</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>973</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+  <dimension ref="A1:G107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>15:05:14</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C107,LEN(C2)-4)</f>
+        <v>15:07:31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>974</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>974</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>974</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>974</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>974</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>974</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>974</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>974</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>974</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>974</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>974</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>974</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>974</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>974</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>974</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>974</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>974</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>974</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>974</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>974</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>974</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>974</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>974</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>974</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>974</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>974</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>974</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>974</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>974</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>974</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>974</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>974</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>974</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>974</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>974</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>974</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>974</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>974</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>974</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>974</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>974</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>974</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>974</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>974</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>974</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>974</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>974</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>974</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>974</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>974</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>974</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>974</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>974</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>974</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>974</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>974</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>974</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>974</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>974</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>563</v>
+      </c>
+      <c r="B67" t="s">
+        <v>974</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>575</v>
+      </c>
+      <c r="B68" t="s">
+        <v>974</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>576</v>
+      </c>
+      <c r="B69" t="s">
+        <v>974</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D69" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>577</v>
+      </c>
+      <c r="B70" t="s">
+        <v>974</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B71" t="s">
+        <v>974</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>974</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B73" t="s">
+        <v>974</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B74" t="s">
+        <v>974</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D74" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B75" t="s">
+        <v>974</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D75" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B76" t="s">
+        <v>974</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B77" t="s">
+        <v>974</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D77" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B78" t="s">
+        <v>974</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>974</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B80" t="s">
+        <v>974</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B81" t="s">
+        <v>974</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B82" t="s">
+        <v>974</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B83" t="s">
+        <v>974</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D83" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B84" t="s">
+        <v>974</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D84" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B85" t="s">
+        <v>974</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B86" t="s">
+        <v>974</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D86" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B87" t="s">
+        <v>974</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B88" t="s">
+        <v>974</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D88" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B89" t="s">
+        <v>974</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D89" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B90" t="s">
+        <v>974</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D90" t="s">
+        <v>80</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B91" t="s">
+        <v>974</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D91" t="s">
+        <v>85</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B92" t="s">
+        <v>974</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D92" t="s">
+        <v>80</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B93" t="s">
+        <v>974</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B94" t="s">
+        <v>974</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D94" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B95" t="s">
+        <v>974</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B96" t="s">
+        <v>974</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D96" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B97" t="s">
+        <v>974</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D97" t="s">
+        <v>75</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B98" t="s">
+        <v>974</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D98" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B99" t="s">
+        <v>974</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D99" t="s">
+        <v>75</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B100" t="s">
+        <v>974</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D100" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B101" t="s">
+        <v>974</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D101" t="s">
+        <v>75</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B102" t="s">
+        <v>974</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D102" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B103" t="s">
+        <v>974</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D103" t="s">
+        <v>75</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B104" t="s">
+        <v>974</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D104" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B105" t="s">
+        <v>974</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D105" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B106" t="s">
+        <v>974</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D106" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B107" t="s">
+        <v>974</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D107" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D37" sqref="D2:D53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>16:27:27</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C53,LEN(C2)-4)</f>
+        <v>16:29:20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>974</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>974</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>974</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>974</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>974</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>974</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>974</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>974</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>974</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>974</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>974</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>974</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>974</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>974</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>974</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>974</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>974</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>974</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>974</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>974</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>974</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>974</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>974</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>974</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>974</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>974</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>974</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>974</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>974</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>974</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>974</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>974</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>974</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>974</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>974</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>974</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>974</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>974</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>974</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>974</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>974</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>974</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>974</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>974</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>974</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>974</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/objectsPositionCV10.xlsx
+++ b/objectsPositionCV10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD467B72-B511-4DDD-A825-A62E48991081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEF4C02-7609-4A2B-A595-CAB4AD2F1356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,8 +56,10 @@
     <sheet name="U20CV10_check_total" sheetId="41" state="hidden" r:id="rId41"/>
     <sheet name="objectsPositionU21CV10" sheetId="42" state="hidden" r:id="rId42"/>
     <sheet name="U21CV10_check_total" sheetId="43" state="hidden" r:id="rId43"/>
-    <sheet name="objectsPositionU22CV10" sheetId="44" r:id="rId44"/>
-    <sheet name="U22CV10_check_total" sheetId="45" r:id="rId45"/>
+    <sheet name="objectsPositionU22CV10" sheetId="44" state="hidden" r:id="rId44"/>
+    <sheet name="U22CV10_check_total" sheetId="45" state="hidden" r:id="rId45"/>
+    <sheet name="objectsPositionU23CV10" sheetId="46" r:id="rId46"/>
+    <sheet name="U23CV10_check_total" sheetId="47" r:id="rId47"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7644" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8043" uniqueCount="1394">
   <si>
     <t>timestamp</t>
   </si>
@@ -4062,6 +4064,201 @@
   </si>
   <si>
     <t>16:29:20</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_41_55_630</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_42_17_443</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_42_20_985</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_42_27_583</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_42_32_270</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_43_00_601</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_43_14_650</t>
+  </si>
+  <si>
+    <t>U23CV</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>2021_11_10_</t>
+  </si>
+  <si>
+    <t>09:41:19:708</t>
+  </si>
+  <si>
+    <t>09:41:19:742</t>
+  </si>
+  <si>
+    <t>09:41:19:764</t>
+  </si>
+  <si>
+    <t>09:41:19:786</t>
+  </si>
+  <si>
+    <t>09:41:19:787</t>
+  </si>
+  <si>
+    <t>09:41:26:144</t>
+  </si>
+  <si>
+    <t>09:41:26:166</t>
+  </si>
+  <si>
+    <t>09:41:29:409</t>
+  </si>
+  <si>
+    <t>09:41:29:420</t>
+  </si>
+  <si>
+    <t>09:41:33:340</t>
+  </si>
+  <si>
+    <t>09:41:33:341</t>
+  </si>
+  <si>
+    <t>09:41:33:385</t>
+  </si>
+  <si>
+    <t>09:41:33:407</t>
+  </si>
+  <si>
+    <t>09:41:33:540</t>
+  </si>
+  <si>
+    <t>09:41:37:605</t>
+  </si>
+  <si>
+    <t>09:41:37:606</t>
+  </si>
+  <si>
+    <t>09:41:37:750</t>
+  </si>
+  <si>
+    <t>09:41:44:524</t>
+  </si>
+  <si>
+    <t>09:41:44:525</t>
+  </si>
+  <si>
+    <t>09:41:44:769</t>
+  </si>
+  <si>
+    <t>09:41:50:788</t>
+  </si>
+  <si>
+    <t>09:41:50:922</t>
+  </si>
+  <si>
+    <t>09:41:55:586</t>
+  </si>
+  <si>
+    <t>09:41:55:630</t>
+  </si>
+  <si>
+    <t>09:42:00:450</t>
+  </si>
+  <si>
+    <t>09:42:00:451</t>
+  </si>
+  <si>
+    <t>09:42:00:584</t>
+  </si>
+  <si>
+    <t>09:42:05:204</t>
+  </si>
+  <si>
+    <t>09:42:05:248</t>
+  </si>
+  <si>
+    <t>09:42:05:370</t>
+  </si>
+  <si>
+    <t>09:42:05:404</t>
+  </si>
+  <si>
+    <t>09:42:06:103</t>
+  </si>
+  <si>
+    <t>09:42:06:181</t>
+  </si>
+  <si>
+    <t>09:42:17:443</t>
+  </si>
+  <si>
+    <t>09:42:20:685</t>
+  </si>
+  <si>
+    <t>09:42:20:985</t>
+  </si>
+  <si>
+    <t>09:42:24:262</t>
+  </si>
+  <si>
+    <t>09:42:24:339</t>
+  </si>
+  <si>
+    <t>09:42:24:340</t>
+  </si>
+  <si>
+    <t>09:42:27:427</t>
+  </si>
+  <si>
+    <t>09:42:27:583</t>
+  </si>
+  <si>
+    <t>09:42:32:225</t>
+  </si>
+  <si>
+    <t>09:42:32:270</t>
+  </si>
+  <si>
+    <t>09:42:36:168</t>
+  </si>
+  <si>
+    <t>09:42:36:223</t>
+  </si>
+  <si>
+    <t>09:42:49:750</t>
+  </si>
+  <si>
+    <t>09:42:49:851</t>
+  </si>
+  <si>
+    <t>09:43:00:601</t>
+  </si>
+  <si>
+    <t>09:43:13:662</t>
+  </si>
+  <si>
+    <t>09:43:13:706</t>
+  </si>
+  <si>
+    <t>09:43:13:806</t>
+  </si>
+  <si>
+    <t>09:43:14:650</t>
+  </si>
+  <si>
+    <t>09:41:19</t>
+  </si>
+  <si>
+    <t>09:43:14</t>
   </si>
 </sst>
 </file>
@@ -4427,7 +4624,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="E21:N23"/>
+      <selection activeCell="O24" sqref="A24:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5573,26 +5770,52 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1393</v>
+      </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
+        <v>1.331018518518523E-3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
       <c r="O24" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
@@ -25914,7 +26137,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -26835,8 +27058,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -27035,7 +27258,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -28874,8 +29097,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -29074,7 +29297,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -29995,7 +30218,1401 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+  <dimension ref="A1:G69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D2:D69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>09:41:19</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C69,LEN(C2)-4)</f>
+        <v>09:43:14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D58" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>563</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>575</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>576</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
     <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30012,10 +31629,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>1169</v>
+        <v>1330</v>
       </c>
       <c r="C2" t="s">
         <v>102</v>
@@ -30029,10 +31646,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>1168</v>
+        <v>1332</v>
       </c>
       <c r="C3" t="s">
         <v>344</v>
@@ -30046,16 +31663,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>576</v>
       </c>
       <c r="B4" t="s">
-        <v>1164</v>
+        <v>1335</v>
       </c>
       <c r="C4" t="s">
         <v>276</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>112</v>
@@ -30063,10 +31680,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>1337</v>
       </c>
       <c r="B5" t="s">
-        <v>1171</v>
+        <v>1335</v>
       </c>
       <c r="C5" t="s">
         <v>104</v>
@@ -30080,10 +31697,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>1170</v>
+        <v>1334</v>
       </c>
       <c r="C6" t="s">
         <v>275</v>
@@ -30097,10 +31714,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>1166</v>
+        <v>1331</v>
       </c>
       <c r="C7" t="s">
         <v>110</v>
@@ -30114,10 +31731,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>973</v>
       </c>
       <c r="B8" t="s">
-        <v>1167</v>
+        <v>1332</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -30134,7 +31751,7 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>1165</v>
+        <v>1329</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -30148,16 +31765,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>1163</v>
+        <v>1333</v>
       </c>
       <c r="C10" t="s">
         <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>105</v>
@@ -30165,10 +31782,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1173</v>
+        <v>1338</v>
       </c>
       <c r="B11" t="s">
-        <v>1170</v>
+        <v>1334</v>
       </c>
       <c r="C11" t="s">
         <v>111</v>

--- a/objectsPositionCV10.xlsx
+++ b/objectsPositionCV10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
@@ -60,6 +60,14 @@
     <sheet name="U22CV10_check_total" sheetId="45" state="hidden" r:id="rId45"/>
     <sheet name="objectsPositionU23CV10" sheetId="46" r:id="rId46"/>
     <sheet name="U23CV10_check_total" sheetId="47" r:id="rId47"/>
+    <sheet name="objectsPositionU24CV10" r:id="rId52" sheetId="48"/>
+    <sheet name="U24CV10_check_total" r:id="rId53" sheetId="49"/>
+    <sheet name="objectsPositionU25CV10" r:id="rId54" sheetId="50"/>
+    <sheet name="U25CV10_check_total" r:id="rId55" sheetId="51"/>
+    <sheet name="objectsPositionU26CV10" r:id="rId56" sheetId="52"/>
+    <sheet name="U26CV10_check_total" r:id="rId57" sheetId="53"/>
+    <sheet name="objectsPositionU27CV10" r:id="rId58" sheetId="54"/>
+    <sheet name="U27CV10_check_total" r:id="rId59" sheetId="55"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8043" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9307" uniqueCount="1607">
   <si>
     <t>timestamp</t>
   </si>
@@ -4259,6 +4267,645 @@
   </si>
   <si>
     <t>09:43:14</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_59_024</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_59_068</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_59_090</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_59_091</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_59_113</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_08_347</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_08_769</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_12_967</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_13_311</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_16_932</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_16_954</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_19_953</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_20_064</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_24_607</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_24_628</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_30_204</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_30_326</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_34_790</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_34_824</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_34_846</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_34_913</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_39_188</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_39_189</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_39_288</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_44_486</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_50_306</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_50_350</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_50_383</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_50_406</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_50_450</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_50_472</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_18_50_483</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_19_26_445</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_19_26_844</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_19_26_845</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_19_29_210</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_19_29_565</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_19_34_152</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_19_34_363</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_19_37_251</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_19_37_606</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_19_47_068</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_19_47_091</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_19_47_113</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_19_47_191</t>
+  </si>
+  <si>
+    <t>U24CV</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_01_427</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_01_472</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_01_494</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_01_516</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_03_731</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_03_753</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_03_777</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_04_276</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_04_653</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_09_573</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_09_706</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_12_549</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_12_550</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_12_749</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_15_448</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_15_670</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_17_991</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_18_191</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_20_268</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_20_368</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_23_633</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_23_634</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_23_711</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_28_587</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_28_609</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_29_586</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_30_186</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_30_275</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_33_274</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_33_307</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_35_828</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_35_894</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_40_692</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_40_792</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_49_533</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_49_710</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_52_987</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_09_54_575</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_10_05_314</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_10_17_776</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_10_17_831</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_10_17_887</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_10_17_975</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_10_22_251</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_10_26_449</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_10_26_450</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_10_26_616</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_10_27_427</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_10_27_849</t>
+  </si>
+  <si>
+    <t>U25CV</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_34_770</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_34_814</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_34_815</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_34_826</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_34_848</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_45_370</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_45_392</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_54_288</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_54_310</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_59_630</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_59_653</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_04_395</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_04_472</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_11_214</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_11_247</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_15_434</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_15_712</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_21_487</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_21_509</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_26_351</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_26_352</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_26_373</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_32_249</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_32_271</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_36_169</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_36_192</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_43_332</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_43_511</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_48_274</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_05_48_608</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_06_02_568</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_06_02_868</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_06_27_135</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_06_27_312</t>
+  </si>
+  <si>
+    <t>U26CV</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_19_611</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_19_654</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_19_655</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_19_677</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_19_688</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_42_094</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_42_350</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_58_931</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_58_953</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_04_03_373</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_04_03_473</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_04_03_529</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_04_03_851</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_04_38_990</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_10_132</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_10_154</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_16_651</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_16_673</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_20_549</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_20_571</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_25_612</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_25_613</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_25_635</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_30_610</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_30_632</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_36_130</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_36_152</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_40_872</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_40_894</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_45_814</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_45_815</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_45_970</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_05_49_613</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_04_895</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_05_050</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_13_513</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_16_211</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_40_633</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_40_656</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_40_733</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_40_889</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_40_967</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_067</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_089</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_211</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_233</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_255</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_267</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_289</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_389</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_655</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_689</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_733</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_755</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_788</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_41_811</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_42_088</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_42_255</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_42_689</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_42_711</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_42_777</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_43_555</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_43_610</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_43_677</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_06_50_596</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_07_27_567</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_07_29_455</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_07_29_711</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_07_29_733</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_07_44_171</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_07_44_226</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_07_44_326</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_07_44_526</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_07_54_532</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_07_54_533</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_07_54_689</t>
+  </si>
+  <si>
+    <t>U27CV</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>841</t>
   </si>
 </sst>
 </file>
@@ -4629,19 +5276,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="7.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.73046875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.796875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.46484375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.73046875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.3984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.46484375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
@@ -5882,8 +6529,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -6940,8 +7587,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.59765625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -7140,9 +7787,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -8012,8 +8659,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="20.06640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.06640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -8212,8 +8859,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -9168,8 +9815,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="20.06640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.06640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -9368,8 +10015,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -10358,8 +11005,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="20.06640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.06640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -10558,8 +11205,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -11327,9 +11974,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.06640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.59765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.59765625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.06640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -11528,9 +12175,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.59765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -12672,8 +13319,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -13781,8 +14428,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -13981,8 +14628,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -15107,7 +15754,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -15306,8 +15953,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -16160,8 +16807,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -16360,8 +17007,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -17146,8 +17793,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -17346,8 +17993,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -18506,9 +19153,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -18707,8 +19354,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="20.06640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="20.06640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -18904,8 +19551,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -20115,7 +20762,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -20314,8 +20961,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -21474,8 +22121,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -21674,8 +22321,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -22494,8 +23141,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -22682,8 +23329,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -23842,8 +24489,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -24042,8 +24689,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -25066,8 +25713,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -25266,8 +25913,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -26137,7 +26784,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -27058,8 +27705,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -27258,7 +27905,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -29097,8 +29744,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -29297,7 +29944,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -30218,8 +30865,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -30418,7 +31065,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -31611,9 +32258,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -31799,6 +32446,1036 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -31812,8 +33489,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.1328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.1328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -31993,6 +33670,3516 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>563</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>575</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>576</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>577</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>563</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>575</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>576</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>577</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C74" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C84" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C87" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C91" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -32006,8 +37193,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -32203,9 +37390,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -33007,8 +38194,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -33844,8 +39031,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.59765625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">

--- a/objectsPositionCV10.xlsx
+++ b/objectsPositionCV10.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEF4C02-7609-4A2B-A595-CAB4AD2F1356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD355A9-A15C-4440-8DEC-C393CE32C036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,16 +58,16 @@
     <sheet name="U21CV10_check_total" sheetId="43" state="hidden" r:id="rId43"/>
     <sheet name="objectsPositionU22CV10" sheetId="44" state="hidden" r:id="rId44"/>
     <sheet name="U22CV10_check_total" sheetId="45" state="hidden" r:id="rId45"/>
-    <sheet name="objectsPositionU23CV10" sheetId="46" r:id="rId46"/>
-    <sheet name="U23CV10_check_total" sheetId="47" r:id="rId47"/>
-    <sheet name="objectsPositionU24CV10" r:id="rId52" sheetId="48"/>
-    <sheet name="U24CV10_check_total" r:id="rId53" sheetId="49"/>
-    <sheet name="objectsPositionU25CV10" r:id="rId54" sheetId="50"/>
-    <sheet name="U25CV10_check_total" r:id="rId55" sheetId="51"/>
-    <sheet name="objectsPositionU26CV10" r:id="rId56" sheetId="52"/>
-    <sheet name="U26CV10_check_total" r:id="rId57" sheetId="53"/>
-    <sheet name="objectsPositionU27CV10" r:id="rId58" sheetId="54"/>
-    <sheet name="U27CV10_check_total" r:id="rId59" sheetId="55"/>
+    <sheet name="objectsPositionU23CV10" sheetId="46" state="hidden" r:id="rId46"/>
+    <sheet name="U23CV10_check_total" sheetId="47" state="hidden" r:id="rId47"/>
+    <sheet name="objectsPositionU24CV10" sheetId="48" state="hidden" r:id="rId48"/>
+    <sheet name="U24CV10_check_total" sheetId="49" state="hidden" r:id="rId49"/>
+    <sheet name="objectsPositionU25CV10" sheetId="50" state="hidden" r:id="rId50"/>
+    <sheet name="U25CV10_check_total" sheetId="51" state="hidden" r:id="rId51"/>
+    <sheet name="objectsPositionU26CV10" sheetId="52" state="hidden" r:id="rId52"/>
+    <sheet name="U26CV10_check_total" sheetId="53" state="hidden" r:id="rId53"/>
+    <sheet name="objectsPositionU27CV10" sheetId="54" state="hidden" r:id="rId54"/>
+    <sheet name="U27CV10_check_total" sheetId="55" state="hidden" r:id="rId55"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9307" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9629" uniqueCount="1644">
   <si>
     <t>timestamp</t>
   </si>
@@ -4269,288 +4269,51 @@
     <t>09:43:14</t>
   </si>
   <si>
-    <t>2021_11_10_12_17_59_024</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_59_068</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_59_090</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_59_091</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_59_113</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_08_347</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_08_769</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_12_967</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_13_311</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_16_932</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_16_954</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_19_953</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_20_064</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_24_607</t>
-  </si>
-  <si>
     <t>2021_11_10_12_18_24_628</t>
   </si>
   <si>
-    <t>2021_11_10_12_18_30_204</t>
-  </si>
-  <si>
     <t>2021_11_10_12_18_30_326</t>
   </si>
   <si>
-    <t>2021_11_10_12_18_34_790</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_34_824</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_34_846</t>
-  </si>
-  <si>
     <t>2021_11_10_12_18_34_913</t>
   </si>
   <si>
-    <t>2021_11_10_12_18_39_188</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_39_189</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_39_288</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_44_486</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_50_306</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_50_350</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_50_383</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_50_406</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_50_450</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_50_472</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_18_50_483</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_19_26_445</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_19_26_844</t>
-  </si>
-  <si>
     <t>2021_11_10_12_19_26_845</t>
   </si>
   <si>
-    <t>2021_11_10_12_19_29_210</t>
-  </si>
-  <si>
     <t>2021_11_10_12_19_29_565</t>
   </si>
   <si>
-    <t>2021_11_10_12_19_34_152</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_19_34_363</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_19_37_251</t>
-  </si>
-  <si>
     <t>2021_11_10_12_19_37_606</t>
   </si>
   <si>
-    <t>2021_11_10_12_19_47_068</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_19_47_091</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_19_47_113</t>
-  </si>
-  <si>
     <t>2021_11_10_12_19_47_191</t>
   </si>
   <si>
     <t>U24CV</t>
   </si>
   <si>
-    <t>2021_11_10_14_09_01_427</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_01_472</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_01_494</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_01_516</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_03_731</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_03_753</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_03_777</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_04_276</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_04_653</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_09_573</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_09_706</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_12_549</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_12_550</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_12_749</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_15_448</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_15_670</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_17_991</t>
-  </si>
-  <si>
     <t>2021_11_10_14_09_18_191</t>
   </si>
   <si>
-    <t>2021_11_10_14_09_20_268</t>
-  </si>
-  <si>
     <t>2021_11_10_14_09_20_368</t>
   </si>
   <si>
-    <t>2021_11_10_14_09_23_633</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_23_634</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_23_711</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_28_587</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_28_609</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_29_586</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_30_186</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_30_275</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_33_274</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_33_307</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_35_828</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_35_894</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_40_692</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_40_792</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_09_49_533</t>
-  </si>
-  <si>
     <t>2021_11_10_14_09_49_710</t>
   </si>
   <si>
-    <t>2021_11_10_14_09_52_987</t>
-  </si>
-  <si>
     <t>2021_11_10_14_09_54_575</t>
   </si>
   <si>
     <t>2021_11_10_14_10_05_314</t>
   </si>
   <si>
-    <t>2021_11_10_14_10_17_776</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_10_17_831</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_10_17_887</t>
-  </si>
-  <si>
     <t>2021_11_10_14_10_17_975</t>
   </si>
   <si>
     <t>2021_11_10_14_10_22_251</t>
   </si>
   <si>
-    <t>2021_11_10_14_10_26_449</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_10_26_450</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_10_26_616</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_10_27_427</t>
-  </si>
-  <si>
     <t>2021_11_10_14_10_27_849</t>
   </si>
   <si>
@@ -4560,105 +4323,24 @@
     <t>611</t>
   </si>
   <si>
-    <t>2021_11_10_15_04_34_770</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_34_814</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_34_815</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_34_826</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_34_848</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_45_370</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_45_392</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_54_288</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_54_310</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_59_630</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_59_653</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_05_04_395</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_05_04_472</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_05_11_214</t>
-  </si>
-  <si>
     <t>2021_11_10_15_05_11_247</t>
   </si>
   <si>
-    <t>2021_11_10_15_05_15_434</t>
-  </si>
-  <si>
     <t>2021_11_10_15_05_15_712</t>
   </si>
   <si>
-    <t>2021_11_10_15_05_21_487</t>
-  </si>
-  <si>
     <t>2021_11_10_15_05_21_509</t>
   </si>
   <si>
-    <t>2021_11_10_15_05_26_351</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_05_26_352</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_05_26_373</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_05_32_249</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_05_32_271</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_05_36_169</t>
-  </si>
-  <si>
     <t>2021_11_10_15_05_36_192</t>
   </si>
   <si>
-    <t>2021_11_10_15_05_43_332</t>
-  </si>
-  <si>
     <t>2021_11_10_15_05_43_511</t>
   </si>
   <si>
-    <t>2021_11_10_15_05_48_274</t>
-  </si>
-  <si>
     <t>2021_11_10_15_05_48_608</t>
   </si>
   <si>
-    <t>2021_11_10_15_06_02_568</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_06_02_868</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_06_27_135</t>
-  </si>
-  <si>
     <t>2021_11_10_15_06_27_312</t>
   </si>
   <si>
@@ -4671,231 +4353,24 @@
     <t>501</t>
   </si>
   <si>
-    <t>2021_11_10_16_03_19_611</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_03_19_654</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_03_19_655</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_03_19_677</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_03_19_688</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_03_42_094</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_03_42_350</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_03_58_931</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_03_58_953</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_04_03_373</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_04_03_473</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_04_03_529</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_04_03_851</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_04_38_990</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_10_132</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_10_154</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_16_651</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_16_673</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_20_549</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_20_571</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_25_612</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_25_613</t>
-  </si>
-  <si>
     <t>2021_11_10_16_05_25_635</t>
   </si>
   <si>
-    <t>2021_11_10_16_05_30_610</t>
-  </si>
-  <si>
     <t>2021_11_10_16_05_30_632</t>
   </si>
   <si>
-    <t>2021_11_10_16_05_36_130</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_36_152</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_40_872</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_40_894</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_45_814</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_45_815</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_45_970</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_05_49_613</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_04_895</t>
-  </si>
-  <si>
     <t>2021_11_10_16_06_05_050</t>
   </si>
   <si>
-    <t>2021_11_10_16_06_13_513</t>
-  </si>
-  <si>
     <t>2021_11_10_16_06_16_211</t>
   </si>
   <si>
-    <t>2021_11_10_16_06_40_633</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_40_656</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_40_733</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_40_889</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_40_967</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_067</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_089</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_211</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_233</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_255</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_267</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_289</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_389</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_655</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_689</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_733</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_755</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_788</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_41_811</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_42_088</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_42_255</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_42_689</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_42_711</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_42_777</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_43_555</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_06_43_610</t>
-  </si>
-  <si>
     <t>2021_11_10_16_06_43_677</t>
   </si>
   <si>
-    <t>2021_11_10_16_06_50_596</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_07_27_567</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_07_29_455</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_07_29_711</t>
-  </si>
-  <si>
     <t>2021_11_10_16_07_29_733</t>
   </si>
   <si>
-    <t>2021_11_10_16_07_44_171</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_07_44_226</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_07_44_326</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_07_44_526</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_07_54_532</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_07_54_533</t>
-  </si>
-  <si>
     <t>2021_11_10_16_07_54_689</t>
   </si>
   <si>
@@ -4906,6 +4381,642 @@
   </si>
   <si>
     <t>841</t>
+  </si>
+  <si>
+    <t>12:17:59:024</t>
+  </si>
+  <si>
+    <t>12:17:59:068</t>
+  </si>
+  <si>
+    <t>12:17:59:090</t>
+  </si>
+  <si>
+    <t>12:17:59:091</t>
+  </si>
+  <si>
+    <t>12:17:59:113</t>
+  </si>
+  <si>
+    <t>12:18:08:347</t>
+  </si>
+  <si>
+    <t>12:18:08:769</t>
+  </si>
+  <si>
+    <t>12:18:12:967</t>
+  </si>
+  <si>
+    <t>12:18:13:311</t>
+  </si>
+  <si>
+    <t>12:18:16:932</t>
+  </si>
+  <si>
+    <t>12:18:16:954</t>
+  </si>
+  <si>
+    <t>12:18:19:953</t>
+  </si>
+  <si>
+    <t>12:18:20:064</t>
+  </si>
+  <si>
+    <t>12:18:24:607</t>
+  </si>
+  <si>
+    <t>12:18:24:628</t>
+  </si>
+  <si>
+    <t>12:18:30:204</t>
+  </si>
+  <si>
+    <t>12:18:30:326</t>
+  </si>
+  <si>
+    <t>12:18:34:790</t>
+  </si>
+  <si>
+    <t>12:18:34:824</t>
+  </si>
+  <si>
+    <t>12:18:34:846</t>
+  </si>
+  <si>
+    <t>12:18:34:913</t>
+  </si>
+  <si>
+    <t>12:18:39:188</t>
+  </si>
+  <si>
+    <t>12:18:39:189</t>
+  </si>
+  <si>
+    <t>12:18:39:288</t>
+  </si>
+  <si>
+    <t>12:18:44:486</t>
+  </si>
+  <si>
+    <t>12:18:50:306</t>
+  </si>
+  <si>
+    <t>12:18:50:350</t>
+  </si>
+  <si>
+    <t>12:18:50:383</t>
+  </si>
+  <si>
+    <t>12:18:50:406</t>
+  </si>
+  <si>
+    <t>12:18:50:450</t>
+  </si>
+  <si>
+    <t>12:18:50:472</t>
+  </si>
+  <si>
+    <t>12:18:50:483</t>
+  </si>
+  <si>
+    <t>12:19:26:445</t>
+  </si>
+  <si>
+    <t>12:19:26:844</t>
+  </si>
+  <si>
+    <t>12:19:26:845</t>
+  </si>
+  <si>
+    <t>12:19:29:210</t>
+  </si>
+  <si>
+    <t>12:19:29:565</t>
+  </si>
+  <si>
+    <t>12:19:34:152</t>
+  </si>
+  <si>
+    <t>12:19:34:363</t>
+  </si>
+  <si>
+    <t>12:19:37:251</t>
+  </si>
+  <si>
+    <t>12:19:37:606</t>
+  </si>
+  <si>
+    <t>12:19:47:068</t>
+  </si>
+  <si>
+    <t>12:19:47:091</t>
+  </si>
+  <si>
+    <t>12:19:47:113</t>
+  </si>
+  <si>
+    <t>12:19:47:191</t>
+  </si>
+  <si>
+    <t>12:17:59</t>
+  </si>
+  <si>
+    <t>12:19:47</t>
+  </si>
+  <si>
+    <t>14:09:01:427</t>
+  </si>
+  <si>
+    <t>14:09:01:472</t>
+  </si>
+  <si>
+    <t>14:09:01:494</t>
+  </si>
+  <si>
+    <t>14:09:01:516</t>
+  </si>
+  <si>
+    <t>14:09:03:731</t>
+  </si>
+  <si>
+    <t>14:09:03:753</t>
+  </si>
+  <si>
+    <t>14:09:03:777</t>
+  </si>
+  <si>
+    <t>14:09:04:276</t>
+  </si>
+  <si>
+    <t>14:09:04:653</t>
+  </si>
+  <si>
+    <t>14:09:09:573</t>
+  </si>
+  <si>
+    <t>14:09:09:706</t>
+  </si>
+  <si>
+    <t>14:09:12:549</t>
+  </si>
+  <si>
+    <t>14:09:12:550</t>
+  </si>
+  <si>
+    <t>14:09:12:749</t>
+  </si>
+  <si>
+    <t>14:09:15:448</t>
+  </si>
+  <si>
+    <t>14:09:15:670</t>
+  </si>
+  <si>
+    <t>14:09:17:991</t>
+  </si>
+  <si>
+    <t>14:09:18:191</t>
+  </si>
+  <si>
+    <t>14:09:20:268</t>
+  </si>
+  <si>
+    <t>14:09:20:368</t>
+  </si>
+  <si>
+    <t>14:09:23:633</t>
+  </si>
+  <si>
+    <t>14:09:23:634</t>
+  </si>
+  <si>
+    <t>14:09:23:711</t>
+  </si>
+  <si>
+    <t>14:09:28:587</t>
+  </si>
+  <si>
+    <t>14:09:28:609</t>
+  </si>
+  <si>
+    <t>14:09:29:586</t>
+  </si>
+  <si>
+    <t>14:09:30:186</t>
+  </si>
+  <si>
+    <t>14:09:30:275</t>
+  </si>
+  <si>
+    <t>14:09:33:274</t>
+  </si>
+  <si>
+    <t>14:09:33:307</t>
+  </si>
+  <si>
+    <t>14:09:35:828</t>
+  </si>
+  <si>
+    <t>14:09:35:894</t>
+  </si>
+  <si>
+    <t>14:09:40:692</t>
+  </si>
+  <si>
+    <t>14:09:40:792</t>
+  </si>
+  <si>
+    <t>14:09:49:533</t>
+  </si>
+  <si>
+    <t>14:09:49:710</t>
+  </si>
+  <si>
+    <t>14:09:52:987</t>
+  </si>
+  <si>
+    <t>14:09:54:575</t>
+  </si>
+  <si>
+    <t>14:10:05:314</t>
+  </si>
+  <si>
+    <t>14:10:17:776</t>
+  </si>
+  <si>
+    <t>14:10:17:831</t>
+  </si>
+  <si>
+    <t>14:10:17:887</t>
+  </si>
+  <si>
+    <t>14:10:17:975</t>
+  </si>
+  <si>
+    <t>14:10:22:251</t>
+  </si>
+  <si>
+    <t>14:10:26:449</t>
+  </si>
+  <si>
+    <t>14:10:26:450</t>
+  </si>
+  <si>
+    <t>14:10:26:616</t>
+  </si>
+  <si>
+    <t>14:10:27:427</t>
+  </si>
+  <si>
+    <t>14:10:27:849</t>
+  </si>
+  <si>
+    <t>14:09:01</t>
+  </si>
+  <si>
+    <t>14:10:27</t>
+  </si>
+  <si>
+    <t>15:04:34:770</t>
+  </si>
+  <si>
+    <t>15:04:34:814</t>
+  </si>
+  <si>
+    <t>15:04:34:815</t>
+  </si>
+  <si>
+    <t>15:04:34:826</t>
+  </si>
+  <si>
+    <t>15:04:34:848</t>
+  </si>
+  <si>
+    <t>15:04:45:370</t>
+  </si>
+  <si>
+    <t>15:04:45:392</t>
+  </si>
+  <si>
+    <t>15:04:54:288</t>
+  </si>
+  <si>
+    <t>15:04:54:310</t>
+  </si>
+  <si>
+    <t>15:04:59:630</t>
+  </si>
+  <si>
+    <t>15:04:59:653</t>
+  </si>
+  <si>
+    <t>15:05:04:395</t>
+  </si>
+  <si>
+    <t>15:05:04:472</t>
+  </si>
+  <si>
+    <t>15:05:11:214</t>
+  </si>
+  <si>
+    <t>15:05:11:247</t>
+  </si>
+  <si>
+    <t>15:05:15:434</t>
+  </si>
+  <si>
+    <t>15:05:15:712</t>
+  </si>
+  <si>
+    <t>15:05:21:487</t>
+  </si>
+  <si>
+    <t>15:05:21:509</t>
+  </si>
+  <si>
+    <t>15:05:26:351</t>
+  </si>
+  <si>
+    <t>15:05:26:352</t>
+  </si>
+  <si>
+    <t>15:05:26:373</t>
+  </si>
+  <si>
+    <t>15:05:32:249</t>
+  </si>
+  <si>
+    <t>15:05:32:271</t>
+  </si>
+  <si>
+    <t>15:05:36:169</t>
+  </si>
+  <si>
+    <t>15:05:36:192</t>
+  </si>
+  <si>
+    <t>15:05:43:332</t>
+  </si>
+  <si>
+    <t>15:05:43:511</t>
+  </si>
+  <si>
+    <t>15:05:48:274</t>
+  </si>
+  <si>
+    <t>15:05:48:608</t>
+  </si>
+  <si>
+    <t>15:06:02:568</t>
+  </si>
+  <si>
+    <t>15:06:02:868</t>
+  </si>
+  <si>
+    <t>15:06:27:135</t>
+  </si>
+  <si>
+    <t>15:06:27:312</t>
+  </si>
+  <si>
+    <t>15:04:34</t>
+  </si>
+  <si>
+    <t>15:06:27</t>
+  </si>
+  <si>
+    <t>16:03:19:611</t>
+  </si>
+  <si>
+    <t>16:03:19:654</t>
+  </si>
+  <si>
+    <t>16:03:19:655</t>
+  </si>
+  <si>
+    <t>16:03:19:677</t>
+  </si>
+  <si>
+    <t>16:03:19:688</t>
+  </si>
+  <si>
+    <t>16:03:42:094</t>
+  </si>
+  <si>
+    <t>16:03:42:350</t>
+  </si>
+  <si>
+    <t>16:03:58:931</t>
+  </si>
+  <si>
+    <t>16:03:58:953</t>
+  </si>
+  <si>
+    <t>16:04:03:373</t>
+  </si>
+  <si>
+    <t>16:04:03:473</t>
+  </si>
+  <si>
+    <t>16:04:03:529</t>
+  </si>
+  <si>
+    <t>16:04:03:851</t>
+  </si>
+  <si>
+    <t>16:04:38:990</t>
+  </si>
+  <si>
+    <t>16:05:10:132</t>
+  </si>
+  <si>
+    <t>16:05:10:154</t>
+  </si>
+  <si>
+    <t>16:05:16:651</t>
+  </si>
+  <si>
+    <t>16:05:16:673</t>
+  </si>
+  <si>
+    <t>16:05:20:549</t>
+  </si>
+  <si>
+    <t>16:05:20:571</t>
+  </si>
+  <si>
+    <t>16:05:25:612</t>
+  </si>
+  <si>
+    <t>16:05:25:613</t>
+  </si>
+  <si>
+    <t>16:05:25:635</t>
+  </si>
+  <si>
+    <t>16:05:30:610</t>
+  </si>
+  <si>
+    <t>16:05:30:632</t>
+  </si>
+  <si>
+    <t>16:05:36:130</t>
+  </si>
+  <si>
+    <t>16:05:36:152</t>
+  </si>
+  <si>
+    <t>16:05:40:872</t>
+  </si>
+  <si>
+    <t>16:05:40:894</t>
+  </si>
+  <si>
+    <t>16:05:45:814</t>
+  </si>
+  <si>
+    <t>16:05:45:815</t>
+  </si>
+  <si>
+    <t>16:05:45:970</t>
+  </si>
+  <si>
+    <t>16:05:49:613</t>
+  </si>
+  <si>
+    <t>16:06:04:895</t>
+  </si>
+  <si>
+    <t>16:06:05:050</t>
+  </si>
+  <si>
+    <t>16:06:13:513</t>
+  </si>
+  <si>
+    <t>16:06:16:211</t>
+  </si>
+  <si>
+    <t>16:06:40:633</t>
+  </si>
+  <si>
+    <t>16:06:40:656</t>
+  </si>
+  <si>
+    <t>16:06:40:733</t>
+  </si>
+  <si>
+    <t>16:06:40:889</t>
+  </si>
+  <si>
+    <t>16:06:40:967</t>
+  </si>
+  <si>
+    <t>16:06:41:067</t>
+  </si>
+  <si>
+    <t>16:06:41:089</t>
+  </si>
+  <si>
+    <t>16:06:41:211</t>
+  </si>
+  <si>
+    <t>16:06:41:233</t>
+  </si>
+  <si>
+    <t>16:06:41:255</t>
+  </si>
+  <si>
+    <t>16:06:41:267</t>
+  </si>
+  <si>
+    <t>16:06:41:289</t>
+  </si>
+  <si>
+    <t>16:06:41:389</t>
+  </si>
+  <si>
+    <t>16:06:41:655</t>
+  </si>
+  <si>
+    <t>16:06:41:689</t>
+  </si>
+  <si>
+    <t>16:06:41:733</t>
+  </si>
+  <si>
+    <t>16:06:41:755</t>
+  </si>
+  <si>
+    <t>16:06:41:788</t>
+  </si>
+  <si>
+    <t>16:06:41:811</t>
+  </si>
+  <si>
+    <t>16:06:42:088</t>
+  </si>
+  <si>
+    <t>16:06:42:255</t>
+  </si>
+  <si>
+    <t>16:06:42:689</t>
+  </si>
+  <si>
+    <t>16:06:42:711</t>
+  </si>
+  <si>
+    <t>16:06:42:777</t>
+  </si>
+  <si>
+    <t>16:06:43:555</t>
+  </si>
+  <si>
+    <t>16:06:43:610</t>
+  </si>
+  <si>
+    <t>16:06:43:677</t>
+  </si>
+  <si>
+    <t>16:06:50:596</t>
+  </si>
+  <si>
+    <t>16:07:27:567</t>
+  </si>
+  <si>
+    <t>16:07:29:455</t>
+  </si>
+  <si>
+    <t>16:07:29:711</t>
+  </si>
+  <si>
+    <t>16:07:29:733</t>
+  </si>
+  <si>
+    <t>16:07:44:171</t>
+  </si>
+  <si>
+    <t>16:07:44:226</t>
+  </si>
+  <si>
+    <t>16:07:44:326</t>
+  </si>
+  <si>
+    <t>16:07:44:526</t>
+  </si>
+  <si>
+    <t>16:07:54:532</t>
+  </si>
+  <si>
+    <t>16:07:54:533</t>
+  </si>
+  <si>
+    <t>16:07:54:689</t>
+  </si>
+  <si>
+    <t>16:03:19</t>
+  </si>
+  <si>
+    <t>16:07:54</t>
   </si>
 </sst>
 </file>
@@ -5270,25 +5381,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E86F9B-1B9E-44CB-9092-EEA81452DFBE}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="A24:O24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O28" sqref="A25:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.3984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.46484375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="2" max="3" width="7.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.796875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.46484375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
@@ -5398,7 +5509,7 @@
         <v>273</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D25" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D29" si="0">C3-B3</f>
         <v>7.6388888888878625E-4</v>
       </c>
       <c r="E3" s="1">
@@ -5481,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O25" si="1">SUM(E4:N4)</f>
+        <f t="shared" ref="O4:O29" si="1">SUM(E4:N4)</f>
         <v>2</v>
       </c>
     </row>
@@ -6466,47 +6577,206 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1478</v>
+      </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
+        <v>1.2500000000000844E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
       <c r="O25" s="1">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9537037037034093E-4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3078703703703898E-3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1828703703703498E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="4"/>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
@@ -6529,8 +6799,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -7587,8 +7857,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.59765625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -7787,9 +8057,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -8659,8 +8929,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.06640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="20.06640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -8859,8 +9129,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -9815,8 +10085,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.06640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="20.06640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -10015,8 +10285,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.59765625" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -11005,8 +11275,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.06640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="20.06640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -11205,8 +11475,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.59765625" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -11974,9 +12244,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.59765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.59765625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.06640625" collapsed="true"/>
+    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.06640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -12175,9 +12445,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.59765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -13319,8 +13589,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -14428,8 +14698,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -14628,8 +14898,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -15754,7 +16024,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -15953,8 +16223,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -16807,8 +17077,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -17007,8 +17277,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -17793,8 +18063,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
+    <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -17993,8 +18263,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -19153,9 +19423,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -19354,8 +19624,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="20.06640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="20.06640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -19551,8 +19821,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -20762,7 +21032,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -20961,8 +21231,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -22121,8 +22391,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -22321,8 +22591,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -23141,8 +23411,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -23329,8 +23599,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -24489,8 +24759,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -24689,8 +24959,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -25713,8 +25983,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -25913,8 +26183,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -26784,7 +27054,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="4" max="4" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -27705,8 +27975,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -27905,7 +28175,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -29744,8 +30014,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -29944,7 +30214,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -30865,8 +31135,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -31065,7 +31335,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -32258,9 +32528,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -32450,880 +32720,1077 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1394</v>
+        <v>1339</v>
       </c>
       <c r="C2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>12:17:59</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C61,LEN(C2)-4)</f>
+        <v>12:19:47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1395</v>
+        <v>1339</v>
       </c>
       <c r="C3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1395</v>
+        <v>1339</v>
       </c>
       <c r="C4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>1395</v>
+        <v>1339</v>
       </c>
       <c r="C5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>1395</v>
+        <v>1339</v>
       </c>
       <c r="C6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>1396</v>
+        <v>1339</v>
       </c>
       <c r="C7" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1397</v>
+        <v>1339</v>
       </c>
       <c r="C8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D8" t="s">
         <v>81</v>
       </c>
-      <c r="D8" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1398</v>
+        <v>1339</v>
       </c>
       <c r="C9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="D9" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>1398</v>
+        <v>1339</v>
       </c>
       <c r="C10" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D10" t="s">
         <v>83</v>
       </c>
-      <c r="D10" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>1399</v>
+        <v>1339</v>
       </c>
       <c r="C11" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="D11" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>1399</v>
+        <v>1339</v>
       </c>
       <c r="C12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>1400</v>
+        <v>1339</v>
       </c>
       <c r="C13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D13" t="s">
         <v>84</v>
       </c>
-      <c r="D13" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
         <v>1401</v>
       </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
         <v>1401</v>
       </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>1402</v>
+        <v>1339</v>
       </c>
       <c r="C16" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D16" t="s">
         <v>85</v>
       </c>
-      <c r="D16" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>1403</v>
+        <v>1339</v>
       </c>
       <c r="C17" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D17" t="s">
         <v>86</v>
       </c>
-      <c r="D17" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>1403</v>
+        <v>1339</v>
       </c>
       <c r="C18" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D18" t="s">
         <v>76</v>
       </c>
-      <c r="D18" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>1404</v>
+        <v>1339</v>
       </c>
       <c r="C19" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D19" t="s">
         <v>86</v>
       </c>
-      <c r="D19" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>1405</v>
+        <v>1339</v>
       </c>
       <c r="C20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D20" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>1405</v>
+        <v>1339</v>
       </c>
       <c r="C21" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="D21" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>1406</v>
+        <v>1339</v>
       </c>
       <c r="C22" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D22" t="s">
         <v>87</v>
       </c>
-      <c r="D22" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>1407</v>
+        <v>1339</v>
       </c>
       <c r="C23" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D23" t="s">
         <v>88</v>
       </c>
-      <c r="D23" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>1407</v>
+        <v>1339</v>
       </c>
       <c r="C24" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="D24" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>1408</v>
+        <v>1339</v>
       </c>
       <c r="C25" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D25" t="s">
         <v>88</v>
       </c>
-      <c r="D25" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>1409</v>
+        <v>1339</v>
       </c>
       <c r="C26" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D26" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>1409</v>
+        <v>1339</v>
       </c>
       <c r="C27" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D27" t="s">
         <v>77</v>
       </c>
-      <c r="D27" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>1410</v>
+        <v>1339</v>
       </c>
       <c r="C28" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D28" t="s">
         <v>89</v>
       </c>
-      <c r="D28" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>1411</v>
+        <v>1339</v>
       </c>
       <c r="C29" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D29" t="s">
         <v>90</v>
       </c>
-      <c r="D29" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>1411</v>
+        <v>1339</v>
       </c>
       <c r="C30" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D30" t="s">
         <v>82</v>
       </c>
-      <c r="D30" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>1412</v>
+        <v>1339</v>
       </c>
       <c r="C31" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D31" t="s">
         <v>90</v>
       </c>
-      <c r="D31" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>1413</v>
+        <v>1339</v>
       </c>
       <c r="C32" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D32" t="s">
         <v>82</v>
       </c>
-      <c r="D32" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>1414</v>
+        <v>1339</v>
       </c>
       <c r="C33" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D33" t="s">
         <v>90</v>
       </c>
-      <c r="D33" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>1415</v>
+        <v>1339</v>
       </c>
       <c r="C34" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D34" t="s">
         <v>91</v>
       </c>
-      <c r="D34" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>1416</v>
+        <v>1339</v>
       </c>
       <c r="C35" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D35" t="s">
         <v>78</v>
       </c>
-      <c r="D35" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>1417</v>
+        <v>1339</v>
       </c>
       <c r="C36" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D36" t="s">
         <v>91</v>
       </c>
-      <c r="D36" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>1418</v>
+        <v>1339</v>
       </c>
       <c r="C37" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D37" t="s">
         <v>92</v>
       </c>
-      <c r="D37" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>1419</v>
+        <v>1339</v>
       </c>
       <c r="C38" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D38" t="s">
         <v>93</v>
       </c>
-      <c r="D38" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>1420</v>
+        <v>1339</v>
       </c>
       <c r="C39" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D39" t="s">
         <v>94</v>
       </c>
-      <c r="D39" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>1420</v>
+        <v>1339</v>
       </c>
       <c r="C40" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D40" t="s">
         <v>93</v>
       </c>
-      <c r="D40" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>1421</v>
+        <v>1339</v>
       </c>
       <c r="C41" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D41" t="s">
         <v>94</v>
       </c>
-      <c r="D41" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>1422</v>
+        <v>1339</v>
       </c>
       <c r="C42" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D42" t="s">
         <v>93</v>
       </c>
-      <c r="D42" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="E42" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>1423</v>
+        <v>1339</v>
       </c>
       <c r="C43" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D43" t="s">
         <v>94</v>
       </c>
-      <c r="D43" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="E43" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>1424</v>
+        <v>1339</v>
       </c>
       <c r="C44" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D44" t="s">
         <v>93</v>
       </c>
-      <c r="D44" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>1425</v>
+        <v>1339</v>
       </c>
       <c r="C45" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D45" t="s">
         <v>94</v>
       </c>
-      <c r="D45" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="E45" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>1426</v>
+        <v>1339</v>
       </c>
       <c r="C46" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D46" t="s">
         <v>75</v>
       </c>
-      <c r="D46" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="E46" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>1427</v>
+        <v>1339</v>
       </c>
       <c r="C47" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D47" t="s">
         <v>84</v>
       </c>
-      <c r="D47" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="E47" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>1428</v>
+        <v>1339</v>
       </c>
       <c r="C48" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D48" t="s">
         <v>75</v>
       </c>
-      <c r="D48" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="E48" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>1429</v>
+        <v>1339</v>
       </c>
       <c r="C49" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D49" t="s">
         <v>80</v>
       </c>
-      <c r="D49" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="E49" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>1430</v>
+        <v>1339</v>
       </c>
       <c r="C50" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D50" t="s">
         <v>85</v>
       </c>
-      <c r="D50" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="E50" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>1430</v>
+        <v>1339</v>
       </c>
       <c r="C51" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D51" t="s">
         <v>80</v>
       </c>
-      <c r="D51" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="E51" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>1431</v>
+        <v>1339</v>
       </c>
       <c r="C52" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D52" t="s">
         <v>76</v>
       </c>
-      <c r="D52" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="E52" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>1432</v>
+        <v>1339</v>
       </c>
       <c r="C53" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D53" t="s">
         <v>86</v>
       </c>
-      <c r="D53" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="E53" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>1432</v>
+        <v>1339</v>
       </c>
       <c r="C54" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D54" t="s">
         <v>76</v>
       </c>
-      <c r="D54" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="E54" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>1433</v>
+        <v>1339</v>
       </c>
       <c r="C55" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D55" t="s">
         <v>81</v>
       </c>
-      <c r="D55" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="E55" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>1434</v>
+        <v>1339</v>
       </c>
       <c r="C56" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D56" t="s">
         <v>87</v>
       </c>
-      <c r="D56" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="E56" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>1434</v>
+        <v>1339</v>
       </c>
       <c r="C57" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D57" t="s">
         <v>81</v>
       </c>
-      <c r="D57" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="E57" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>1435</v>
+        <v>1339</v>
       </c>
       <c r="C58" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D58" t="s">
         <v>93</v>
       </c>
-      <c r="D58" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="E58" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>1436</v>
+        <v>1339</v>
       </c>
       <c r="C59" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D59" t="s">
         <v>94</v>
       </c>
-      <c r="D59" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="E59" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>1437</v>
+        <v>1339</v>
       </c>
       <c r="C60" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D60" t="s">
         <v>93</v>
       </c>
-      <c r="D60" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="E60" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>1438</v>
+        <v>1339</v>
       </c>
       <c r="C61" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D61" t="s">
         <v>94</v>
       </c>
-      <c r="D61" t="s">
-        <v>1439</v>
+      <c r="E61" t="s">
+        <v>1401</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D2:D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -33334,148 +33801,178 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>1428</v>
+        <v>1397</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>1434</v>
+        <v>1399</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="D3" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>1410</v>
+        <v>1395</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="D4" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>541</v>
       </c>
       <c r="B5" t="s">
-        <v>1428</v>
+        <v>1397</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>1438</v>
+        <v>1400</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>109</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>1430</v>
+        <v>1398</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>1434</v>
+        <v>1399</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>1414</v>
+        <v>1396</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>109</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>1438</v>
+        <v>1400</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>1439</v>
+        <v>109</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -33489,8 +33986,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.1328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="19.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -33674,1006 +34171,1230 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D2:D70"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1440</v>
+        <v>1339</v>
       </c>
       <c r="C2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>14:09:01</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C70,LEN(C2)-4)</f>
+        <v>14:10:27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1441</v>
+        <v>1339</v>
       </c>
       <c r="C3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1441</v>
+        <v>1339</v>
       </c>
       <c r="C4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>1441</v>
+        <v>1339</v>
       </c>
       <c r="C5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>1441</v>
+        <v>1339</v>
       </c>
       <c r="C6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>1442</v>
+        <v>1339</v>
       </c>
       <c r="C7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1442</v>
+        <v>1339</v>
       </c>
       <c r="C8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D8" t="s">
         <v>81</v>
       </c>
-      <c r="D8" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1443</v>
+        <v>1339</v>
       </c>
       <c r="C9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="D9" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>1443</v>
+        <v>1339</v>
       </c>
       <c r="C10" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D10" t="s">
         <v>83</v>
       </c>
-      <c r="D10" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>1444</v>
+        <v>1339</v>
       </c>
       <c r="C11" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D11" t="s">
         <v>90</v>
       </c>
-      <c r="D11" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>1444</v>
+        <v>1339</v>
       </c>
       <c r="C12" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D12" t="s">
         <v>82</v>
       </c>
-      <c r="D12" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>1445</v>
+        <v>1339</v>
       </c>
       <c r="C13" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D13" t="s">
         <v>90</v>
       </c>
-      <c r="D13" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>1446</v>
+        <v>1339</v>
       </c>
       <c r="C14" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D14" t="s">
         <v>82</v>
       </c>
-      <c r="D14" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>1447</v>
+        <v>1339</v>
       </c>
       <c r="C15" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D15" t="s">
         <v>90</v>
       </c>
-      <c r="D15" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>1448</v>
+        <v>1339</v>
       </c>
       <c r="C16" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D16" t="s">
         <v>82</v>
       </c>
-      <c r="D16" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>1449</v>
+        <v>1339</v>
       </c>
       <c r="C17" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="D17" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>1449</v>
+        <v>1339</v>
       </c>
       <c r="C18" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D18" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>1450</v>
+        <v>1339</v>
       </c>
       <c r="C19" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D19" t="s">
         <v>84</v>
       </c>
-      <c r="D19" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>1451</v>
+        <v>1339</v>
       </c>
       <c r="C20" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D20" t="s">
         <v>85</v>
       </c>
-      <c r="D20" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>1452</v>
+        <v>1339</v>
       </c>
       <c r="C21" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D21" t="s">
         <v>80</v>
       </c>
-      <c r="D21" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>1453</v>
+        <v>1339</v>
       </c>
       <c r="C22" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D22" t="s">
         <v>85</v>
       </c>
-      <c r="D22" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>1454</v>
+        <v>1339</v>
       </c>
       <c r="C23" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D23" t="s">
         <v>86</v>
       </c>
-      <c r="D23" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>1454</v>
+        <v>1339</v>
       </c>
       <c r="C24" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D24" t="s">
         <v>76</v>
       </c>
-      <c r="D24" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>1455</v>
+        <v>1339</v>
       </c>
       <c r="C25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D25" t="s">
         <v>86</v>
       </c>
-      <c r="D25" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>1456</v>
+        <v>1339</v>
       </c>
       <c r="C26" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D26" t="s">
         <v>87</v>
       </c>
-      <c r="D26" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>1456</v>
+        <v>1339</v>
       </c>
       <c r="C27" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D27" t="s">
         <v>81</v>
       </c>
-      <c r="D27" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>1457</v>
+        <v>1339</v>
       </c>
       <c r="C28" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D28" t="s">
         <v>87</v>
       </c>
-      <c r="D28" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>1458</v>
+        <v>1339</v>
       </c>
       <c r="C29" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D29" t="s">
         <v>88</v>
       </c>
-      <c r="D29" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>1458</v>
+        <v>1339</v>
       </c>
       <c r="C30" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D30" t="s">
         <v>83</v>
       </c>
-      <c r="D30" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>1459</v>
+        <v>1339</v>
       </c>
       <c r="C31" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D31" t="s">
         <v>88</v>
       </c>
-      <c r="D31" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>1460</v>
+        <v>1339</v>
       </c>
       <c r="C32" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D32" t="s">
         <v>89</v>
       </c>
-      <c r="D32" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>1461</v>
+        <v>1339</v>
       </c>
       <c r="C33" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D33" t="s">
         <v>77</v>
       </c>
-      <c r="D33" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>1462</v>
+        <v>1339</v>
       </c>
       <c r="C34" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D34" t="s">
         <v>89</v>
       </c>
-      <c r="D34" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>1463</v>
+        <v>1339</v>
       </c>
       <c r="C35" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D35" t="s">
         <v>93</v>
       </c>
-      <c r="D35" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>1464</v>
+        <v>1339</v>
       </c>
       <c r="C36" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D36" t="s">
         <v>94</v>
       </c>
-      <c r="D36" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>1465</v>
+        <v>1339</v>
       </c>
       <c r="C37" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D37" t="s">
         <v>93</v>
       </c>
-      <c r="D37" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>1466</v>
+        <v>1339</v>
       </c>
       <c r="C38" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D38" t="s">
         <v>90</v>
       </c>
-      <c r="D38" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>1466</v>
+        <v>1339</v>
       </c>
       <c r="C39" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D39" t="s">
         <v>82</v>
       </c>
-      <c r="D39" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>1467</v>
+        <v>1339</v>
       </c>
       <c r="C40" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D40" t="s">
         <v>90</v>
       </c>
-      <c r="D40" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>1468</v>
+        <v>1339</v>
       </c>
       <c r="C41" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D41" t="s">
         <v>91</v>
       </c>
-      <c r="D41" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>1468</v>
+        <v>1339</v>
       </c>
       <c r="C42" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D42" t="s">
         <v>78</v>
       </c>
-      <c r="D42" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="E42" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>1469</v>
+        <v>1339</v>
       </c>
       <c r="C43" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D43" t="s">
         <v>91</v>
       </c>
-      <c r="D43" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="E43" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>1470</v>
+        <v>1339</v>
       </c>
       <c r="C44" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D44" t="s">
         <v>92</v>
       </c>
-      <c r="D44" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>1470</v>
+        <v>1339</v>
       </c>
       <c r="C45" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D45" t="s">
         <v>79</v>
       </c>
-      <c r="D45" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="E45" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>1471</v>
+        <v>1339</v>
       </c>
       <c r="C46" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D46" t="s">
         <v>92</v>
       </c>
-      <c r="D46" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="E46" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>1472</v>
+        <v>1339</v>
       </c>
       <c r="C47" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D47" t="s">
         <v>94</v>
       </c>
-      <c r="D47" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="E47" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>1472</v>
+        <v>1339</v>
       </c>
       <c r="C48" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D48" t="s">
         <v>93</v>
       </c>
-      <c r="D48" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="E48" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>1473</v>
+        <v>1339</v>
       </c>
       <c r="C49" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D49" t="s">
         <v>94</v>
       </c>
-      <c r="D49" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="E49" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>1474</v>
+        <v>1339</v>
       </c>
       <c r="C50" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D50" t="s">
         <v>75</v>
       </c>
-      <c r="D50" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="E50" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>1475</v>
+        <v>1339</v>
       </c>
       <c r="C51" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D51" t="s">
         <v>84</v>
       </c>
-      <c r="D51" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="E51" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>1475</v>
+        <v>1339</v>
       </c>
       <c r="C52" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D52" t="s">
         <v>75</v>
       </c>
-      <c r="D52" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="E52" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>1476</v>
+        <v>1339</v>
       </c>
       <c r="C53" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D53" t="s">
         <v>80</v>
       </c>
-      <c r="D53" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="E53" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>1477</v>
+        <v>1339</v>
       </c>
       <c r="C54" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D54" t="s">
         <v>76</v>
       </c>
-      <c r="D54" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="E54" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>1478</v>
+        <v>1339</v>
       </c>
       <c r="C55" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D55" t="s">
         <v>93</v>
       </c>
-      <c r="D55" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="E55" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>1479</v>
+        <v>1339</v>
       </c>
       <c r="C56" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D56" t="s">
         <v>77</v>
       </c>
-      <c r="D56" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="E56" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>1480</v>
+        <v>1339</v>
       </c>
       <c r="C57" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D57" t="s">
         <v>89</v>
       </c>
-      <c r="D57" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="E57" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>1480</v>
+        <v>1339</v>
       </c>
       <c r="C58" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D58" t="s">
         <v>77</v>
       </c>
-      <c r="D58" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="E58" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>1481</v>
+        <v>1339</v>
       </c>
       <c r="C59" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D59" t="s">
         <v>89</v>
       </c>
-      <c r="D59" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="E59" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>1482</v>
+        <v>1339</v>
       </c>
       <c r="C60" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D60" t="s">
         <v>77</v>
       </c>
-      <c r="D60" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="E60" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>1483</v>
+        <v>1339</v>
       </c>
       <c r="C61" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D61" t="s">
         <v>78</v>
       </c>
-      <c r="D61" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="E61" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>1483</v>
+        <v>1339</v>
       </c>
       <c r="C62" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D62" t="s">
         <v>82</v>
       </c>
-      <c r="D62" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="E62" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>1484</v>
+        <v>1339</v>
       </c>
       <c r="C63" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D63" t="s">
         <v>85</v>
       </c>
-      <c r="D63" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="E63" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>1485</v>
+        <v>1339</v>
       </c>
       <c r="C64" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D64" t="s">
         <v>80</v>
       </c>
-      <c r="D64" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="E64" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>1486</v>
+        <v>1339</v>
       </c>
       <c r="C65" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D65" t="s">
         <v>85</v>
       </c>
-      <c r="D65" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="E65" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>1486</v>
+        <v>1339</v>
       </c>
       <c r="C66" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D66" t="s">
         <v>80</v>
       </c>
-      <c r="D66" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="E66" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>563</v>
       </c>
       <c r="B67" t="s">
-        <v>1487</v>
+        <v>1339</v>
       </c>
       <c r="C67" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D67" t="s">
         <v>85</v>
       </c>
-      <c r="D67" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="E67" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>575</v>
       </c>
       <c r="B68" t="s">
-        <v>1487</v>
+        <v>1339</v>
       </c>
       <c r="C68" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D68" t="s">
         <v>80</v>
       </c>
-      <c r="D68" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="E68" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>576</v>
       </c>
       <c r="B69" t="s">
-        <v>1488</v>
+        <v>1339</v>
       </c>
       <c r="C69" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D69" t="s">
         <v>85</v>
       </c>
-      <c r="D69" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="E69" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>577</v>
       </c>
       <c r="B70" t="s">
-        <v>1488</v>
+        <v>1339</v>
       </c>
       <c r="C70" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D70" t="s">
         <v>80</v>
       </c>
-      <c r="D70" t="s">
-        <v>1489</v>
+      <c r="E70" t="s">
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D2:D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -34684,886 +35405,1084 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>1475</v>
+        <v>1404</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>1477</v>
+        <v>1405</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="D3" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>1482</v>
+        <v>1407</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="D4" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>1483</v>
+        <v>1408</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>1483</v>
+        <v>1408</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>109</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>577</v>
       </c>
       <c r="B7" t="s">
-        <v>1488</v>
+        <v>1409</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>1457</v>
+        <v>1402</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>109</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1490</v>
+        <v>1411</v>
       </c>
       <c r="B9" t="s">
-        <v>1483</v>
+        <v>1408</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>107</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>1459</v>
+        <v>1403</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>109</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>1478</v>
+        <v>1406</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>1489</v>
+        <v>107</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D2:D51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1491</v>
+        <v>1339</v>
       </c>
       <c r="C2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>15:04:34</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C51,LEN(C2)-4)</f>
+        <v>15:06:27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1492</v>
+        <v>1339</v>
       </c>
       <c r="C3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1493</v>
+        <v>1339</v>
       </c>
       <c r="C4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>1493</v>
+        <v>1339</v>
       </c>
       <c r="C5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>1493</v>
+        <v>1339</v>
       </c>
       <c r="C6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>1494</v>
+        <v>1339</v>
       </c>
       <c r="C7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1494</v>
+        <v>1339</v>
       </c>
       <c r="C8" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D8" t="s">
         <v>81</v>
       </c>
-      <c r="D8" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1495</v>
+        <v>1339</v>
       </c>
       <c r="C9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="D9" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>1495</v>
+        <v>1339</v>
       </c>
       <c r="C10" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D10" t="s">
         <v>83</v>
       </c>
-      <c r="D10" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>1496</v>
+        <v>1339</v>
       </c>
       <c r="C11" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="D11" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>1496</v>
+        <v>1339</v>
       </c>
       <c r="C12" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>1497</v>
+        <v>1339</v>
       </c>
       <c r="C13" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D13" t="s">
         <v>84</v>
       </c>
-      <c r="D13" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>1498</v>
+        <v>1339</v>
       </c>
       <c r="C14" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D14" t="s">
         <v>85</v>
       </c>
-      <c r="D14" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>1498</v>
+        <v>1339</v>
       </c>
       <c r="C15" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>1499</v>
+        <v>1339</v>
       </c>
       <c r="C16" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D16" t="s">
         <v>85</v>
       </c>
-      <c r="D16" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>1500</v>
+        <v>1339</v>
       </c>
       <c r="C17" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D17" t="s">
         <v>86</v>
       </c>
-      <c r="D17" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>1500</v>
+        <v>1339</v>
       </c>
       <c r="C18" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D18" t="s">
         <v>76</v>
       </c>
-      <c r="D18" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>1501</v>
+        <v>1339</v>
       </c>
       <c r="C19" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D19" t="s">
         <v>86</v>
       </c>
-      <c r="D19" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>1502</v>
+        <v>1339</v>
       </c>
       <c r="C20" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D20" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>1502</v>
+        <v>1339</v>
       </c>
       <c r="C21" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="D21" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>1503</v>
+        <v>1339</v>
       </c>
       <c r="C22" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D22" t="s">
         <v>87</v>
       </c>
-      <c r="D22" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>1504</v>
+        <v>1339</v>
       </c>
       <c r="C23" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D23" t="s">
         <v>88</v>
       </c>
-      <c r="D23" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>1504</v>
+        <v>1339</v>
       </c>
       <c r="C24" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="D24" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>1505</v>
+        <v>1339</v>
       </c>
       <c r="C25" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D25" t="s">
         <v>88</v>
       </c>
-      <c r="D25" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>1506</v>
+        <v>1339</v>
       </c>
       <c r="C26" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D26" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>1506</v>
+        <v>1339</v>
       </c>
       <c r="C27" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D27" t="s">
         <v>77</v>
       </c>
-      <c r="D27" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>1507</v>
+        <v>1339</v>
       </c>
       <c r="C28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D28" t="s">
         <v>89</v>
       </c>
-      <c r="D28" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>1508</v>
+        <v>1339</v>
       </c>
       <c r="C29" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D29" t="s">
         <v>90</v>
       </c>
-      <c r="D29" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>1508</v>
+        <v>1339</v>
       </c>
       <c r="C30" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D30" t="s">
         <v>82</v>
       </c>
-      <c r="D30" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>1509</v>
+        <v>1339</v>
       </c>
       <c r="C31" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D31" t="s">
         <v>90</v>
       </c>
-      <c r="D31" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>1510</v>
+        <v>1339</v>
       </c>
       <c r="C32" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D32" t="s">
         <v>91</v>
       </c>
-      <c r="D32" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>1511</v>
+        <v>1339</v>
       </c>
       <c r="C33" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>1512</v>
+        <v>1339</v>
       </c>
       <c r="C34" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D34" t="s">
         <v>91</v>
       </c>
-      <c r="D34" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>1513</v>
+        <v>1339</v>
       </c>
       <c r="C35" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D35" t="s">
         <v>92</v>
       </c>
-      <c r="D35" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>1513</v>
+        <v>1339</v>
       </c>
       <c r="C36" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D36" t="s">
         <v>79</v>
       </c>
-      <c r="D36" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>1514</v>
+        <v>1339</v>
       </c>
       <c r="C37" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D37" t="s">
         <v>92</v>
       </c>
-      <c r="D37" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>1515</v>
+        <v>1339</v>
       </c>
       <c r="C38" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D38" t="s">
         <v>93</v>
       </c>
-      <c r="D38" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>1516</v>
+        <v>1339</v>
       </c>
       <c r="C39" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D39" t="s">
         <v>94</v>
       </c>
-      <c r="D39" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>1517</v>
+        <v>1339</v>
       </c>
       <c r="C40" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D40" t="s">
         <v>75</v>
       </c>
-      <c r="D40" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>1518</v>
+        <v>1339</v>
       </c>
       <c r="C41" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D41" t="s">
         <v>84</v>
       </c>
-      <c r="D41" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>1518</v>
+        <v>1339</v>
       </c>
       <c r="C42" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D42" t="s">
         <v>75</v>
       </c>
-      <c r="D42" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="E42" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>1519</v>
+        <v>1339</v>
       </c>
       <c r="C43" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D43" t="s">
         <v>80</v>
       </c>
-      <c r="D43" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="E43" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>1520</v>
+        <v>1339</v>
       </c>
       <c r="C44" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D44" t="s">
         <v>85</v>
       </c>
-      <c r="D44" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>1520</v>
+        <v>1339</v>
       </c>
       <c r="C45" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D45" t="s">
         <v>80</v>
       </c>
-      <c r="D45" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="E45" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>1521</v>
+        <v>1339</v>
       </c>
       <c r="C46" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D46" t="s">
         <v>81</v>
       </c>
-      <c r="D46" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="E46" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>1522</v>
+        <v>1339</v>
       </c>
       <c r="C47" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D47" t="s">
         <v>87</v>
       </c>
-      <c r="D47" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="E47" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>1522</v>
+        <v>1339</v>
       </c>
       <c r="C48" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D48" t="s">
         <v>81</v>
       </c>
-      <c r="D48" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="E48" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>1523</v>
+        <v>1339</v>
       </c>
       <c r="C49" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D49" t="s">
         <v>87</v>
       </c>
-      <c r="D49" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="E49" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>1523</v>
+        <v>1339</v>
       </c>
       <c r="C50" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D50" t="s">
         <v>81</v>
       </c>
-      <c r="D50" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="E50" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>1524</v>
+        <v>1339</v>
       </c>
       <c r="C51" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D51" t="s">
         <v>87</v>
       </c>
-      <c r="D51" t="s">
-        <v>1525</v>
+      <c r="E51" t="s">
+        <v>1419</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D2:D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -35574,1460 +36493,1781 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>1518</v>
+        <v>1416</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>1524</v>
+        <v>1418</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>344</v>
       </c>
       <c r="D3" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>109</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>1507</v>
+        <v>1413</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="D4" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1526</v>
+        <v>1420</v>
       </c>
       <c r="B5" t="s">
-        <v>1518</v>
+        <v>1416</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>1516</v>
+        <v>1415</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>109</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>1520</v>
+        <v>1417</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1527</v>
+        <v>1421</v>
       </c>
       <c r="B8" t="s">
-        <v>1524</v>
+        <v>1418</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>109</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>1509</v>
+        <v>1414</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>1505</v>
+        <v>1412</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>109</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>1516</v>
+        <v>1415</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>1525</v>
+        <v>109</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D2:D92"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1528</v>
+        <v>1339</v>
       </c>
       <c r="C2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>16:03:19</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C92,LEN(C2)-4)</f>
+        <v>16:07:54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1529</v>
+        <v>1339</v>
       </c>
       <c r="C3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1530</v>
+        <v>1339</v>
       </c>
       <c r="C4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>1530</v>
+        <v>1339</v>
       </c>
       <c r="C5" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>1530</v>
+        <v>1339</v>
       </c>
       <c r="C6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>1531</v>
+        <v>1339</v>
       </c>
       <c r="C7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1531</v>
+        <v>1339</v>
       </c>
       <c r="C8" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D8" t="s">
         <v>81</v>
       </c>
-      <c r="D8" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1532</v>
+        <v>1339</v>
       </c>
       <c r="C9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="D9" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>1532</v>
+        <v>1339</v>
       </c>
       <c r="C10" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D10" t="s">
         <v>83</v>
       </c>
-      <c r="D10" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>1533</v>
+        <v>1339</v>
       </c>
       <c r="C11" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="D11" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>1533</v>
+        <v>1339</v>
       </c>
       <c r="C12" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>1534</v>
+        <v>1339</v>
       </c>
       <c r="C13" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D13" t="s">
         <v>84</v>
       </c>
-      <c r="D13" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>1535</v>
+        <v>1339</v>
       </c>
       <c r="C14" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D14" t="s">
         <v>85</v>
       </c>
-      <c r="D14" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>1535</v>
+        <v>1339</v>
       </c>
       <c r="C15" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>1536</v>
+        <v>1339</v>
       </c>
       <c r="C16" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D16" t="s">
         <v>85</v>
       </c>
-      <c r="D16" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>1537</v>
+        <v>1339</v>
       </c>
       <c r="C17" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
       </c>
-      <c r="D17" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>1538</v>
+        <v>1339</v>
       </c>
       <c r="C18" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D18" t="s">
         <v>85</v>
       </c>
-      <c r="D18" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>1539</v>
+        <v>1339</v>
       </c>
       <c r="C19" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D19" t="s">
         <v>80</v>
       </c>
-      <c r="D19" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>1540</v>
+        <v>1339</v>
       </c>
       <c r="C20" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D20" t="s">
         <v>85</v>
       </c>
-      <c r="D20" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>1540</v>
+        <v>1339</v>
       </c>
       <c r="C21" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D21" t="s">
         <v>80</v>
       </c>
-      <c r="D21" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>1541</v>
+        <v>1339</v>
       </c>
       <c r="C22" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D22" t="s">
         <v>93</v>
       </c>
-      <c r="D22" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>1542</v>
+        <v>1339</v>
       </c>
       <c r="C23" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D23" t="s">
         <v>85</v>
       </c>
-      <c r="D23" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>1542</v>
+        <v>1339</v>
       </c>
       <c r="C24" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D24" t="s">
         <v>80</v>
       </c>
-      <c r="D24" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>1543</v>
+        <v>1339</v>
       </c>
       <c r="C25" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D25" t="s">
         <v>85</v>
       </c>
-      <c r="D25" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>1544</v>
+        <v>1339</v>
       </c>
       <c r="C26" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D26" t="s">
         <v>86</v>
       </c>
-      <c r="D26" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>1544</v>
+        <v>1339</v>
       </c>
       <c r="C27" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D27" t="s">
         <v>76</v>
       </c>
-      <c r="D27" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>1545</v>
+        <v>1339</v>
       </c>
       <c r="C28" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D28" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>1546</v>
+        <v>1339</v>
       </c>
       <c r="C29" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D29" t="s">
         <v>87</v>
       </c>
-      <c r="D29" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>1546</v>
+        <v>1339</v>
       </c>
       <c r="C30" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D30" t="s">
         <v>81</v>
       </c>
-      <c r="D30" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>1547</v>
+        <v>1339</v>
       </c>
       <c r="C31" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D31" t="s">
         <v>87</v>
       </c>
-      <c r="D31" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>1548</v>
+        <v>1339</v>
       </c>
       <c r="C32" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D32" t="s">
         <v>88</v>
       </c>
-      <c r="D32" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>1549</v>
+        <v>1339</v>
       </c>
       <c r="C33" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D33" t="s">
         <v>83</v>
       </c>
-      <c r="D33" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>1550</v>
+        <v>1339</v>
       </c>
       <c r="C34" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D34" t="s">
         <v>88</v>
       </c>
-      <c r="D34" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>1551</v>
+        <v>1339</v>
       </c>
       <c r="C35" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D35" t="s">
         <v>89</v>
       </c>
-      <c r="D35" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>1551</v>
+        <v>1339</v>
       </c>
       <c r="C36" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D36" t="s">
         <v>77</v>
       </c>
-      <c r="D36" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>1552</v>
+        <v>1339</v>
       </c>
       <c r="C37" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D37" t="s">
         <v>89</v>
       </c>
-      <c r="D37" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>1553</v>
+        <v>1339</v>
       </c>
       <c r="C38" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D38" t="s">
         <v>90</v>
       </c>
-      <c r="D38" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>1553</v>
+        <v>1339</v>
       </c>
       <c r="C39" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D39" t="s">
         <v>82</v>
       </c>
-      <c r="D39" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>1554</v>
+        <v>1339</v>
       </c>
       <c r="C40" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D40" t="s">
         <v>90</v>
       </c>
-      <c r="D40" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>1555</v>
+        <v>1339</v>
       </c>
       <c r="C41" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D41" t="s">
         <v>91</v>
       </c>
-      <c r="D41" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>1555</v>
+        <v>1339</v>
       </c>
       <c r="C42" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D42" t="s">
         <v>78</v>
       </c>
-      <c r="D42" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="E42" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>1556</v>
+        <v>1339</v>
       </c>
       <c r="C43" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D43" t="s">
         <v>91</v>
       </c>
-      <c r="D43" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="E43" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>1557</v>
+        <v>1339</v>
       </c>
       <c r="C44" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D44" t="s">
         <v>92</v>
       </c>
-      <c r="D44" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>1558</v>
+        <v>1339</v>
       </c>
       <c r="C45" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D45" t="s">
         <v>79</v>
       </c>
-      <c r="D45" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="E45" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>1559</v>
+        <v>1339</v>
       </c>
       <c r="C46" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D46" t="s">
         <v>92</v>
       </c>
-      <c r="D46" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="E46" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>1560</v>
+        <v>1339</v>
       </c>
       <c r="C47" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D47" t="s">
         <v>94</v>
       </c>
-      <c r="D47" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="E47" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>1561</v>
+        <v>1339</v>
       </c>
       <c r="C48" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D48" t="s">
         <v>75</v>
       </c>
-      <c r="D48" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="E48" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>1562</v>
+        <v>1339</v>
       </c>
       <c r="C49" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D49" t="s">
         <v>84</v>
       </c>
-      <c r="D49" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="E49" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>1562</v>
+        <v>1339</v>
       </c>
       <c r="C50" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D50" t="s">
         <v>75</v>
       </c>
-      <c r="D50" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="E50" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>1563</v>
+        <v>1339</v>
       </c>
       <c r="C51" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D51" t="s">
         <v>76</v>
       </c>
-      <c r="D51" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="E51" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>1564</v>
+        <v>1339</v>
       </c>
       <c r="C52" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D52" t="s">
         <v>80</v>
       </c>
-      <c r="D52" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="E52" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>1565</v>
+        <v>1339</v>
       </c>
       <c r="C53" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D53" t="s">
         <v>82</v>
       </c>
-      <c r="D53" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="E53" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>1566</v>
+        <v>1339</v>
       </c>
       <c r="C54" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D54" t="s">
         <v>90</v>
       </c>
-      <c r="D54" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="E54" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>1567</v>
+        <v>1339</v>
       </c>
       <c r="C55" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D55" t="s">
         <v>82</v>
       </c>
-      <c r="D55" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="E55" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>1568</v>
+        <v>1339</v>
       </c>
       <c r="C56" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D56" t="s">
         <v>90</v>
       </c>
-      <c r="D56" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="E56" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>1569</v>
+        <v>1339</v>
       </c>
       <c r="C57" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D57" t="s">
         <v>82</v>
       </c>
-      <c r="D57" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="E57" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>1570</v>
+        <v>1339</v>
       </c>
       <c r="C58" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D58" t="s">
         <v>90</v>
       </c>
-      <c r="D58" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="E58" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>1571</v>
+        <v>1339</v>
       </c>
       <c r="C59" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D59" t="s">
         <v>82</v>
       </c>
-      <c r="D59" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="E59" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>1572</v>
+        <v>1339</v>
       </c>
       <c r="C60" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D60" t="s">
         <v>90</v>
       </c>
-      <c r="D60" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="E60" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>1573</v>
+        <v>1339</v>
       </c>
       <c r="C61" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D61" t="s">
         <v>82</v>
       </c>
-      <c r="D61" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="E61" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>1574</v>
+        <v>1339</v>
       </c>
       <c r="C62" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D62" t="s">
         <v>90</v>
       </c>
-      <c r="D62" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="E62" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>1575</v>
+        <v>1339</v>
       </c>
       <c r="C63" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D63" t="s">
         <v>82</v>
       </c>
-      <c r="D63" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="E63" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>1576</v>
+        <v>1339</v>
       </c>
       <c r="C64" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D64" t="s">
         <v>90</v>
       </c>
-      <c r="D64" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="E64" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>1577</v>
+        <v>1339</v>
       </c>
       <c r="C65" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D65" t="s">
         <v>82</v>
       </c>
-      <c r="D65" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="E65" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>1578</v>
+        <v>1339</v>
       </c>
       <c r="C66" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D66" t="s">
         <v>90</v>
       </c>
-      <c r="D66" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="E66" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>563</v>
       </c>
       <c r="B67" t="s">
-        <v>1579</v>
+        <v>1339</v>
       </c>
       <c r="C67" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D67" t="s">
         <v>82</v>
       </c>
-      <c r="D67" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="E67" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>575</v>
       </c>
       <c r="B68" t="s">
-        <v>1580</v>
+        <v>1339</v>
       </c>
       <c r="C68" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D68" t="s">
         <v>90</v>
       </c>
-      <c r="D68" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="E68" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>576</v>
       </c>
       <c r="B69" t="s">
-        <v>1581</v>
+        <v>1339</v>
       </c>
       <c r="C69" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D69" t="s">
         <v>82</v>
       </c>
-      <c r="D69" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="E69" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>577</v>
       </c>
       <c r="B70" t="s">
-        <v>1582</v>
+        <v>1339</v>
       </c>
       <c r="C70" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D70" t="s">
         <v>90</v>
       </c>
-      <c r="D70" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="E70" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>1115</v>
       </c>
       <c r="B71" t="s">
-        <v>1583</v>
+        <v>1339</v>
       </c>
       <c r="C71" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D71" t="s">
         <v>82</v>
       </c>
-      <c r="D71" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="E71" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>1116</v>
       </c>
       <c r="B72" t="s">
-        <v>1584</v>
+        <v>1339</v>
       </c>
       <c r="C72" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D72" t="s">
         <v>90</v>
       </c>
-      <c r="D72" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="E72" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>1117</v>
       </c>
       <c r="B73" t="s">
-        <v>1585</v>
+        <v>1339</v>
       </c>
       <c r="C73" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D73" t="s">
         <v>82</v>
       </c>
-      <c r="D73" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="E73" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>1118</v>
       </c>
       <c r="B74" t="s">
-        <v>1586</v>
+        <v>1339</v>
       </c>
       <c r="C74" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D74" t="s">
         <v>90</v>
       </c>
-      <c r="D74" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="E74" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>1119</v>
       </c>
       <c r="B75" t="s">
-        <v>1587</v>
+        <v>1339</v>
       </c>
       <c r="C75" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D75" t="s">
         <v>82</v>
       </c>
-      <c r="D75" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="E75" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>1120</v>
       </c>
       <c r="B76" t="s">
-        <v>1588</v>
+        <v>1339</v>
       </c>
       <c r="C76" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D76" t="s">
         <v>90</v>
       </c>
-      <c r="D76" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="E76" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>1121</v>
       </c>
       <c r="B77" t="s">
-        <v>1588</v>
+        <v>1339</v>
       </c>
       <c r="C77" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D77" t="s">
         <v>82</v>
       </c>
-      <c r="D77" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="E77" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>1122</v>
       </c>
       <c r="B78" t="s">
-        <v>1589</v>
+        <v>1339</v>
       </c>
       <c r="C78" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D78" t="s">
         <v>90</v>
       </c>
-      <c r="D78" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="E78" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>1123</v>
       </c>
       <c r="B79" t="s">
-        <v>1590</v>
+        <v>1339</v>
       </c>
       <c r="C79" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D79" t="s">
         <v>82</v>
       </c>
-      <c r="D79" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="E79" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>1124</v>
       </c>
       <c r="B80" t="s">
-        <v>1591</v>
+        <v>1339</v>
       </c>
       <c r="C80" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D80" t="s">
         <v>90</v>
       </c>
-      <c r="D80" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="E80" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>1125</v>
       </c>
       <c r="B81" t="s">
-        <v>1592</v>
+        <v>1339</v>
       </c>
       <c r="C81" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D81" t="s">
         <v>79</v>
       </c>
-      <c r="D81" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="E81" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>1126</v>
       </c>
       <c r="B82" t="s">
-        <v>1593</v>
+        <v>1339</v>
       </c>
       <c r="C82" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D82" t="s">
         <v>81</v>
       </c>
-      <c r="D82" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="E82" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>1127</v>
       </c>
       <c r="B83" t="s">
-        <v>1594</v>
+        <v>1339</v>
       </c>
       <c r="C83" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D83" t="s">
         <v>93</v>
       </c>
-      <c r="D83" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="E83" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>1128</v>
       </c>
       <c r="B84" t="s">
-        <v>1595</v>
+        <v>1339</v>
       </c>
       <c r="C84" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D84" t="s">
         <v>94</v>
       </c>
-      <c r="D84" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="E84" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>1129</v>
       </c>
       <c r="B85" t="s">
-        <v>1596</v>
+        <v>1339</v>
       </c>
       <c r="C85" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D85" t="s">
         <v>93</v>
       </c>
-      <c r="D85" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="E85" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>1130</v>
       </c>
       <c r="B86" t="s">
-        <v>1597</v>
+        <v>1339</v>
       </c>
       <c r="C86" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D86" t="s">
         <v>87</v>
       </c>
-      <c r="D86" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="E86" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>1131</v>
       </c>
       <c r="B87" t="s">
-        <v>1598</v>
+        <v>1339</v>
       </c>
       <c r="C87" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D87" t="s">
         <v>81</v>
       </c>
-      <c r="D87" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="E87" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>1132</v>
       </c>
       <c r="B88" t="s">
-        <v>1599</v>
+        <v>1339</v>
       </c>
       <c r="C88" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D88" t="s">
         <v>87</v>
       </c>
-      <c r="D88" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="E88" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>1133</v>
       </c>
       <c r="B89" t="s">
-        <v>1600</v>
+        <v>1339</v>
       </c>
       <c r="C89" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D89" t="s">
         <v>81</v>
       </c>
-      <c r="D89" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="E89" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>1134</v>
       </c>
       <c r="B90" t="s">
-        <v>1601</v>
+        <v>1339</v>
       </c>
       <c r="C90" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D90" t="s">
         <v>87</v>
       </c>
-      <c r="D90" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="E90" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>1135</v>
       </c>
       <c r="B91" t="s">
-        <v>1602</v>
+        <v>1339</v>
       </c>
       <c r="C91" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D91" t="s">
         <v>81</v>
       </c>
-      <c r="D91" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="E91" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>1136</v>
       </c>
       <c r="B92" t="s">
-        <v>1603</v>
+        <v>1339</v>
       </c>
       <c r="C92" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D92" t="s">
         <v>87</v>
       </c>
-      <c r="D92" t="s">
-        <v>1604</v>
+      <c r="E92" t="s">
+        <v>1429</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D2:D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -37038,148 +38278,178 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>1562</v>
+        <v>1424</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1136</v>
       </c>
       <c r="B3" t="s">
-        <v>1603</v>
+        <v>1428</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>344</v>
       </c>
       <c r="D3" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>1552</v>
+        <v>1423</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="D4" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>1562</v>
+        <v>1424</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1129</v>
       </c>
       <c r="B6" t="s">
-        <v>1596</v>
+        <v>1427</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>1564</v>
+        <v>1425</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1605</v>
+        <v>1430</v>
       </c>
       <c r="B8" t="s">
-        <v>1603</v>
+        <v>1428</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>109</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1124</v>
       </c>
       <c r="B9" t="s">
-        <v>1591</v>
+        <v>1426</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>1550</v>
+        <v>1422</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>109</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1606</v>
+        <v>1431</v>
       </c>
       <c r="B11" t="s">
-        <v>1596</v>
+        <v>1427</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>1604</v>
+        <v>107</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -37193,8 +38463,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -37390,9 +38660,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -38194,8 +39464,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -39031,8 +40301,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.59765625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
